--- a/public/sample/march 2025.xlsx
+++ b/public/sample/march 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Office\Projects\Automated Salary Maker\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE59367-BC56-4AA2-9664-535048BDDB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3291B0-968E-46AD-BB99-9D1739978D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,28 +481,28 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,7 +996,7 @@
   <dimension ref="A1:AM121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1273,7 +1273,7 @@
       <c r="K4" s="5">
         <v>9.5200004577636701</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M4" s="5">
@@ -1294,7 +1294,7 @@
       <c r="R4" s="5">
         <v>9.5</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="S4" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T4" s="37" t="s">
@@ -1303,10 +1303,10 @@
       <c r="U4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="V4" s="36" t="s">
+      <c r="V4" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="36" t="s">
+      <c r="W4" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X4" s="37" t="s">
@@ -1315,7 +1315,7 @@
       <c r="Y4" s="5">
         <v>9.4600000381469709</v>
       </c>
-      <c r="Z4" s="35" t="s">
+      <c r="Z4" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA4" s="5">
@@ -1336,7 +1336,7 @@
       <c r="AF4" s="5">
         <v>9.4899997711181605</v>
       </c>
-      <c r="AG4" s="35" t="s">
+      <c r="AG4" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH4" s="17">
@@ -1378,7 +1378,7 @@
       <c r="K5" s="5">
         <v>18.430000305175799</v>
       </c>
-      <c r="L5" s="35"/>
+      <c r="L5" s="34"/>
       <c r="M5" s="5">
         <v>18.420000076293899</v>
       </c>
@@ -1397,16 +1397,16 @@
       <c r="R5" s="5">
         <v>18.399999618530298</v>
       </c>
-      <c r="S5" s="35"/>
+      <c r="S5" s="34"/>
       <c r="T5" s="37"/>
       <c r="U5" s="37"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
       <c r="X5" s="37"/>
       <c r="Y5" s="5">
         <v>18.319999694824201</v>
       </c>
-      <c r="Z5" s="35"/>
+      <c r="Z5" s="34"/>
       <c r="AA5" s="5">
         <v>18.430000305175799</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="AF5" s="5">
         <v>18.4799995422363</v>
       </c>
-      <c r="AG5" s="35"/>
+      <c r="AG5" s="34"/>
       <c r="AH5" s="17">
         <v>0.28333333333333299</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="K7" s="7">
         <v>10.0900001525879</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M7" s="5">
@@ -1508,7 +1508,7 @@
       <c r="R7" s="9">
         <v>10.0100002288818</v>
       </c>
-      <c r="S7" s="35" t="s">
+      <c r="S7" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T7" s="37" t="s">
@@ -1517,19 +1517,19 @@
       <c r="U7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="V7" s="36" t="s">
+      <c r="V7" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W7" s="36" t="s">
+      <c r="W7" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="X7" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="35" t="s">
+      <c r="X7" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA7" s="5">
@@ -1550,7 +1550,7 @@
       <c r="AF7" s="5">
         <v>9.5699996948242205</v>
       </c>
-      <c r="AG7" s="35" t="s">
+      <c r="AG7" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH7" s="9">
@@ -1592,7 +1592,7 @@
       <c r="K8" s="7">
         <v>18.430000305175799</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="5">
         <v>18.379999160766602</v>
       </c>
@@ -1611,14 +1611,14 @@
       <c r="R8" s="5">
         <v>18.389999389648398</v>
       </c>
-      <c r="S8" s="35"/>
+      <c r="S8" s="34"/>
       <c r="T8" s="37"/>
       <c r="U8" s="37"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="35"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="34"/>
       <c r="AA8" s="5">
         <v>18.450000762939499</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="AF8" s="5">
         <v>19</v>
       </c>
-      <c r="AG8" s="35"/>
+      <c r="AG8" s="34"/>
       <c r="AH8" s="5">
         <v>18.379999160766602</v>
       </c>
@@ -1697,7 +1697,7 @@
       <c r="K10" s="5">
         <v>9.3100004196166992</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M10" s="5">
@@ -1718,7 +1718,7 @@
       <c r="R10" s="5">
         <v>9.2399997711181605</v>
       </c>
-      <c r="S10" s="35" t="s">
+      <c r="S10" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T10" s="5">
@@ -1727,10 +1727,10 @@
       <c r="U10" s="5">
         <v>9.1800003051757795</v>
       </c>
-      <c r="V10" s="36" t="s">
+      <c r="V10" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W10" s="36" t="s">
+      <c r="W10" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X10" s="5">
@@ -1739,7 +1739,7 @@
       <c r="Y10" s="5">
         <v>9.1899995803833008</v>
       </c>
-      <c r="Z10" s="35" t="s">
+      <c r="Z10" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA10" s="5">
@@ -1778,7 +1778,7 @@
       <c r="AL10" s="5">
         <v>9.0699996948242205</v>
       </c>
-      <c r="AM10" s="36" t="s">
+      <c r="AM10" s="40" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
       <c r="K11" s="5">
         <v>19.299999237060501</v>
       </c>
-      <c r="L11" s="35"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="5">
         <v>19.379999160766602</v>
       </c>
@@ -1821,22 +1821,22 @@
       <c r="R11" s="5">
         <v>19.409999847412099</v>
       </c>
-      <c r="S11" s="35"/>
+      <c r="S11" s="34"/>
       <c r="T11" s="5">
         <v>19.409999847412099</v>
       </c>
       <c r="U11" s="5">
         <v>16.469999313354499</v>
       </c>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
       <c r="X11" s="5">
         <v>19.370000839233398</v>
       </c>
       <c r="Y11" s="5">
         <v>19.450000762939499</v>
       </c>
-      <c r="Z11" s="35"/>
+      <c r="Z11" s="34"/>
       <c r="AA11" s="5">
         <v>19.450000762939499</v>
       </c>
@@ -1873,7 +1873,7 @@
       <c r="AL11" s="5">
         <v>20.540000915527301</v>
       </c>
-      <c r="AM11" s="36"/>
+      <c r="AM11" s="40"/>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="2"/>
@@ -1917,7 +1917,7 @@
       <c r="K13" s="5">
         <v>9.4399995803833008</v>
       </c>
-      <c r="L13" s="35" t="s">
+      <c r="L13" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M13" s="5">
@@ -1938,7 +1938,7 @@
       <c r="R13" s="17">
         <v>0.40625</v>
       </c>
-      <c r="S13" s="35" t="s">
+      <c r="S13" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T13" s="5">
@@ -1947,10 +1947,10 @@
       <c r="U13" s="5">
         <v>9.4499998092651403</v>
       </c>
-      <c r="V13" s="36" t="s">
+      <c r="V13" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W13" s="36" t="s">
+      <c r="W13" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X13" s="37" t="s">
@@ -1959,7 +1959,7 @@
       <c r="Y13" s="5">
         <v>9.3599996566772496</v>
       </c>
-      <c r="Z13" s="35" t="s">
+      <c r="Z13" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA13" s="5">
@@ -1980,7 +1980,7 @@
       <c r="AF13" s="5">
         <v>9.3500003814697301</v>
       </c>
-      <c r="AG13" s="35" t="s">
+      <c r="AG13" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH13" s="5">
@@ -1998,7 +1998,7 @@
       <c r="AL13" s="5">
         <v>9.5399999618530291</v>
       </c>
-      <c r="AM13" s="34" t="s">
+      <c r="AM13" s="35" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
       <c r="K14" s="5">
         <v>18.350000381469702</v>
       </c>
-      <c r="L14" s="35"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="5">
         <v>18.340000152587901</v>
       </c>
@@ -2041,20 +2041,20 @@
       <c r="R14" s="17">
         <v>0.27152777777777798</v>
       </c>
-      <c r="S14" s="35"/>
+      <c r="S14" s="34"/>
       <c r="T14" s="5">
         <v>18.329999923706101</v>
       </c>
       <c r="U14" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
       <c r="X14" s="37"/>
       <c r="Y14" s="5">
         <v>18.350000381469702</v>
       </c>
-      <c r="Z14" s="35"/>
+      <c r="Z14" s="34"/>
       <c r="AA14" s="5">
         <v>18.370000839233398</v>
       </c>
@@ -2073,7 +2073,7 @@
       <c r="AF14" s="5">
         <v>18.5</v>
       </c>
-      <c r="AG14" s="35"/>
+      <c r="AG14" s="34"/>
       <c r="AH14" s="5">
         <v>18.329999923706101</v>
       </c>
@@ -2089,7 +2089,7 @@
       <c r="AL14" s="5">
         <v>18.540000915527301</v>
       </c>
-      <c r="AM14" s="34"/>
+      <c r="AM14" s="35"/>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="2"/>
@@ -2133,7 +2133,7 @@
       <c r="K16" s="18">
         <v>0.421527777777778</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="L16" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M16" s="23">
@@ -2154,7 +2154,7 @@
       <c r="R16" s="5">
         <v>9.5799999237060494</v>
       </c>
-      <c r="S16" s="35" t="s">
+      <c r="S16" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T16" s="37" t="s">
@@ -2163,10 +2163,10 @@
       <c r="U16" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="V16" s="36" t="s">
+      <c r="V16" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W16" s="36" t="s">
+      <c r="W16" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X16" s="17">
@@ -2175,7 +2175,7 @@
       <c r="Y16" s="5">
         <v>10</v>
       </c>
-      <c r="Z16" s="35" t="s">
+      <c r="Z16" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA16" s="9">
@@ -2196,7 +2196,7 @@
       <c r="AF16" s="5">
         <v>9.5500001907348597</v>
       </c>
-      <c r="AG16" s="35" t="s">
+      <c r="AG16" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH16" s="9">
@@ -2238,7 +2238,7 @@
       <c r="K17" s="18">
         <v>0.27986111111111101</v>
       </c>
-      <c r="L17" s="35"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="17">
         <v>0.28472222222222199</v>
       </c>
@@ -2257,18 +2257,18 @@
       <c r="R17" s="5">
         <v>18.370000839233398</v>
       </c>
-      <c r="S17" s="35"/>
+      <c r="S17" s="34"/>
       <c r="T17" s="37"/>
       <c r="U17" s="37"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
       <c r="X17" s="5" t="s">
         <v>67</v>
       </c>
       <c r="Y17" s="5">
         <v>19</v>
       </c>
-      <c r="Z17" s="35"/>
+      <c r="Z17" s="34"/>
       <c r="AA17" s="5">
         <v>18.440000534057599</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="AF17" s="5">
         <v>18.569999694824201</v>
       </c>
-      <c r="AG17" s="35"/>
+      <c r="AG17" s="34"/>
       <c r="AH17" s="17">
         <v>0.27083333333333298</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="K19" s="5">
         <v>9.5600004196166992</v>
       </c>
-      <c r="L19" s="35" t="s">
+      <c r="L19" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M19" s="9">
@@ -2370,7 +2370,7 @@
       <c r="R19" s="9">
         <v>10.0100002288818</v>
       </c>
-      <c r="S19" s="35" t="s">
+      <c r="S19" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T19" s="5">
@@ -2379,10 +2379,10 @@
       <c r="U19" s="5">
         <v>9.5299997329711896</v>
       </c>
-      <c r="V19" s="36" t="s">
+      <c r="V19" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="36" t="s">
+      <c r="W19" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X19" s="5">
@@ -2391,7 +2391,7 @@
       <c r="Y19" s="5">
         <v>9.4600000381469709</v>
       </c>
-      <c r="Z19" s="35" t="s">
+      <c r="Z19" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA19" s="5">
@@ -2412,7 +2412,7 @@
       <c r="AF19" s="5">
         <v>9.5299997329711896</v>
       </c>
-      <c r="AG19" s="35" t="s">
+      <c r="AG19" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH19" s="5">
@@ -2454,7 +2454,7 @@
       <c r="K20" s="5">
         <v>18.440000534057599</v>
       </c>
-      <c r="L20" s="35"/>
+      <c r="L20" s="34"/>
       <c r="M20" s="9">
         <v>15.069999694824199</v>
       </c>
@@ -2473,22 +2473,22 @@
       <c r="R20" s="5">
         <v>18.360000610351602</v>
       </c>
-      <c r="S20" s="35"/>
+      <c r="S20" s="34"/>
       <c r="T20" s="5">
         <v>18.360000610351602</v>
       </c>
       <c r="U20" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
       <c r="X20" s="5">
         <v>18.370000839233398</v>
       </c>
       <c r="Y20" s="5">
         <v>18.459999084472699</v>
       </c>
-      <c r="Z20" s="35"/>
+      <c r="Z20" s="34"/>
       <c r="AA20" s="5">
         <v>18.399999618530298</v>
       </c>
@@ -2507,7 +2507,7 @@
       <c r="AF20" s="5">
         <v>19</v>
       </c>
-      <c r="AG20" s="35"/>
+      <c r="AG20" s="34"/>
       <c r="AH20" s="5">
         <v>18.4799995422363</v>
       </c>
@@ -2569,58 +2569,58 @@
       <c r="K22" s="5">
         <v>9.4099998474121094</v>
       </c>
-      <c r="L22" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M22" s="38" t="s">
+      <c r="L22" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="41" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="O22" s="38" t="s">
+      <c r="O22" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="38" t="s">
+      <c r="P22" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="38" t="s">
+      <c r="Q22" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="38" t="s">
+      <c r="R22" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T22" s="38" t="s">
+      <c r="S22" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="38" t="s">
+      <c r="U22" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="36" t="s">
+      <c r="V22" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W22" s="36" t="s">
+      <c r="W22" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="X22" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="38" t="s">
+      <c r="X22" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Z22" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="34" t="s">
+      <c r="Z22" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="35" t="s">
         <v>1</v>
       </c>
       <c r="AD22" s="5">
@@ -2632,7 +2632,7 @@
       <c r="AF22" s="5">
         <v>9.3900003433227504</v>
       </c>
-      <c r="AG22" s="35" t="s">
+      <c r="AG22" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH22" s="5">
@@ -2674,24 +2674,24 @@
       <c r="K23" s="5">
         <v>18.180000305175799</v>
       </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="38"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="41"/>
       <c r="N23" s="37"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
       <c r="AD23" s="5">
         <v>18.309999465942401</v>
       </c>
@@ -2701,7 +2701,7 @@
       <c r="AF23" s="5">
         <v>18.2600002288818</v>
       </c>
-      <c r="AG23" s="35"/>
+      <c r="AG23" s="34"/>
       <c r="AH23" s="5">
         <v>18.299999237060501</v>
       </c>
@@ -2763,7 +2763,7 @@
       <c r="K25" s="5">
         <v>9.4200000762939506</v>
       </c>
-      <c r="L25" s="35" t="s">
+      <c r="L25" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M25" s="5">
@@ -2784,7 +2784,7 @@
       <c r="R25" s="5">
         <v>9.4399995803833008</v>
       </c>
-      <c r="S25" s="35" t="s">
+      <c r="S25" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T25" s="5">
@@ -2793,10 +2793,10 @@
       <c r="U25" s="5">
         <v>9.5600004196166992</v>
       </c>
-      <c r="V25" s="36" t="s">
+      <c r="V25" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W25" s="36" t="s">
+      <c r="W25" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X25" s="5">
@@ -2805,7 +2805,7 @@
       <c r="Y25" s="5">
         <v>9.5399999618530291</v>
       </c>
-      <c r="Z25" s="35" t="s">
+      <c r="Z25" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA25" s="5">
@@ -2826,7 +2826,7 @@
       <c r="AF25" s="5">
         <v>9.5100002288818395</v>
       </c>
-      <c r="AG25" s="35" t="s">
+      <c r="AG25" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH25" s="5">
@@ -2868,7 +2868,7 @@
       <c r="K26" s="5">
         <v>18.360000610351602</v>
       </c>
-      <c r="L26" s="35"/>
+      <c r="L26" s="34"/>
       <c r="M26" s="5">
         <v>18.370000839233398</v>
       </c>
@@ -2887,22 +2887,22 @@
       <c r="R26" s="5">
         <v>18.360000610351602</v>
       </c>
-      <c r="S26" s="35"/>
+      <c r="S26" s="34"/>
       <c r="T26" s="5">
         <v>18.350000381469702</v>
       </c>
       <c r="U26" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
       <c r="X26" s="5">
         <v>18.350000381469702</v>
       </c>
       <c r="Y26" s="5">
         <v>18.360000610351602</v>
       </c>
-      <c r="Z26" s="35"/>
+      <c r="Z26" s="34"/>
       <c r="AA26" s="5">
         <v>18.360000610351602</v>
       </c>
@@ -2921,7 +2921,7 @@
       <c r="AF26" s="5">
         <v>18.379999160766602</v>
       </c>
-      <c r="AG26" s="35"/>
+      <c r="AG26" s="34"/>
       <c r="AH26" s="5">
         <v>18.350000381469702</v>
       </c>
@@ -2985,7 +2985,7 @@
       <c r="K28" s="5">
         <v>9.5299997329711896</v>
       </c>
-      <c r="L28" s="35" t="s">
+      <c r="L28" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="5">
@@ -3006,7 +3006,7 @@
       <c r="R28" s="5">
         <v>9.3800001144409197</v>
       </c>
-      <c r="S28" s="35" t="s">
+      <c r="S28" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T28" s="5">
@@ -3015,10 +3015,10 @@
       <c r="U28" s="5">
         <v>9.5900001525878906</v>
       </c>
-      <c r="V28" s="36" t="s">
+      <c r="V28" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W28" s="36" t="s">
+      <c r="W28" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X28" s="5">
@@ -3027,7 +3027,7 @@
       <c r="Y28" s="5">
         <v>10</v>
       </c>
-      <c r="Z28" s="35" t="s">
+      <c r="Z28" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA28" s="5">
@@ -3048,7 +3048,7 @@
       <c r="AF28" s="5">
         <v>9.5699996948242205</v>
       </c>
-      <c r="AG28" s="35" t="s">
+      <c r="AG28" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH28" s="5">
@@ -3090,7 +3090,7 @@
       <c r="K29" s="5">
         <v>18.350000381469702</v>
       </c>
-      <c r="L29" s="35"/>
+      <c r="L29" s="34"/>
       <c r="M29" s="5">
         <v>18.360000610351602</v>
       </c>
@@ -3109,22 +3109,22 @@
       <c r="R29" s="5">
         <v>18.370000839233398</v>
       </c>
-      <c r="S29" s="35"/>
+      <c r="S29" s="34"/>
       <c r="T29" s="5">
         <v>18.350000381469702</v>
       </c>
       <c r="U29" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
       <c r="X29" s="5">
         <v>18.360000610351602</v>
       </c>
       <c r="Y29" s="5">
         <v>18.340000152587901</v>
       </c>
-      <c r="Z29" s="35"/>
+      <c r="Z29" s="34"/>
       <c r="AA29" s="5">
         <v>18.389999389648398</v>
       </c>
@@ -3143,7 +3143,7 @@
       <c r="AF29" s="5">
         <v>18.389999389648398</v>
       </c>
-      <c r="AG29" s="35"/>
+      <c r="AG29" s="34"/>
       <c r="AH29" s="5">
         <v>18.379999160766602</v>
       </c>
@@ -3180,7 +3180,9 @@
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1">
+        <v>28500</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>28</v>
       </c>
@@ -3205,7 +3207,7 @@
       <c r="K31" s="5">
         <v>9.3699998855590803</v>
       </c>
-      <c r="L31" s="35" t="s">
+      <c r="L31" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M31" s="5">
@@ -3226,49 +3228,49 @@
       <c r="R31" s="5">
         <v>9.3100004196166992</v>
       </c>
-      <c r="S31" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T31" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="U31" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="V31" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="W31" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="X31" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="34" t="s">
+      <c r="S31" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T31" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="U31" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="W31" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="X31" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="35" t="s">
         <v>1</v>
       </c>
       <c r="AF31" s="5">
         <v>9.4399995803833008</v>
       </c>
-      <c r="AG31" s="35" t="s">
+      <c r="AG31" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH31" s="17">
@@ -3308,7 +3310,7 @@
       <c r="K32" s="5">
         <v>18.350000381469702</v>
       </c>
-      <c r="L32" s="35"/>
+      <c r="L32" s="34"/>
       <c r="M32" s="5">
         <v>18.360000610351602</v>
       </c>
@@ -3327,23 +3329,23 @@
       <c r="R32" s="5">
         <v>18.360000610351602</v>
       </c>
-      <c r="S32" s="35"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
       <c r="AF32" s="5">
         <v>18.389999389648398</v>
       </c>
-      <c r="AG32" s="35"/>
+      <c r="AG32" s="34"/>
       <c r="AH32" s="17">
         <v>0.27777777777777801</v>
       </c>
@@ -3405,7 +3407,7 @@
       <c r="K34" s="5">
         <v>10</v>
       </c>
-      <c r="L34" s="35" t="s">
+      <c r="L34" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M34" s="5">
@@ -3426,7 +3428,7 @@
       <c r="R34" s="5">
         <v>10</v>
       </c>
-      <c r="S34" s="35" t="s">
+      <c r="S34" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T34" s="9">
@@ -3435,10 +3437,10 @@
       <c r="U34" s="9">
         <v>10.050000190734901</v>
       </c>
-      <c r="V34" s="36" t="s">
+      <c r="V34" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W34" s="36" t="s">
+      <c r="W34" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X34" s="9">
@@ -3447,7 +3449,7 @@
       <c r="Y34" s="9">
         <v>10.0299997329712</v>
       </c>
-      <c r="Z34" s="35" t="s">
+      <c r="Z34" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA34" s="7">
@@ -3468,7 +3470,7 @@
       <c r="AF34" s="7">
         <v>10.050000190734901</v>
       </c>
-      <c r="AG34" s="35" t="s">
+      <c r="AG34" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH34" s="5">
@@ -3510,7 +3512,7 @@
       <c r="K35" s="5">
         <v>18.350000381469702</v>
       </c>
-      <c r="L35" s="35"/>
+      <c r="L35" s="34"/>
       <c r="M35" s="9">
         <v>14.060000419616699</v>
       </c>
@@ -3529,22 +3531,22 @@
       <c r="R35" s="5">
         <v>18.340000152587901</v>
       </c>
-      <c r="S35" s="35"/>
+      <c r="S35" s="34"/>
       <c r="T35" s="5">
         <v>18.329999923706101</v>
       </c>
       <c r="U35" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
       <c r="X35" s="5">
         <v>18.329999923706101</v>
       </c>
       <c r="Y35" s="5">
         <v>18.350000381469702</v>
       </c>
-      <c r="Z35" s="35"/>
+      <c r="Z35" s="34"/>
       <c r="AA35" s="7">
         <v>18.329999923706101</v>
       </c>
@@ -3563,7 +3565,7 @@
       <c r="AF35" s="7">
         <v>18.360000610351602</v>
       </c>
-      <c r="AG35" s="35"/>
+      <c r="AG35" s="34"/>
       <c r="AH35" s="5">
         <v>18.350000381469702</v>
       </c>
@@ -3625,7 +3627,7 @@
       <c r="K37" s="5">
         <v>9.4700002670288104</v>
       </c>
-      <c r="L37" s="35" t="s">
+      <c r="L37" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M37" s="5">
@@ -3646,7 +3648,7 @@
       <c r="R37" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="S37" s="35" t="s">
+      <c r="S37" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T37" s="5">
@@ -3655,10 +3657,10 @@
       <c r="U37" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="V37" s="36" t="s">
+      <c r="V37" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W37" s="36" t="s">
+      <c r="W37" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X37" s="5">
@@ -3667,7 +3669,7 @@
       <c r="Y37" s="5">
         <v>9.5299997329711896</v>
       </c>
-      <c r="Z37" s="35" t="s">
+      <c r="Z37" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA37" s="5">
@@ -3688,7 +3690,7 @@
       <c r="AF37" s="5">
         <v>9.3900003433227504</v>
       </c>
-      <c r="AG37" s="35" t="s">
+      <c r="AG37" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH37" s="17">
@@ -3730,7 +3732,7 @@
       <c r="K38" s="5">
         <v>18.430000305175799</v>
       </c>
-      <c r="L38" s="35"/>
+      <c r="L38" s="34"/>
       <c r="M38" s="9">
         <v>17.370000839233398</v>
       </c>
@@ -3747,20 +3749,20 @@
         <v>18.4899997711182</v>
       </c>
       <c r="R38" s="37"/>
-      <c r="S38" s="35"/>
+      <c r="S38" s="34"/>
       <c r="T38" s="5">
         <v>18.360000610351602</v>
       </c>
       <c r="U38" s="37"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
       <c r="X38" s="5">
         <v>18.370000839233398</v>
       </c>
       <c r="Y38" s="5">
         <v>18.309999465942401</v>
       </c>
-      <c r="Z38" s="35"/>
+      <c r="Z38" s="34"/>
       <c r="AA38" s="5">
         <v>18.360000610351602</v>
       </c>
@@ -3779,7 +3781,7 @@
       <c r="AF38" s="5">
         <v>18.299999237060501</v>
       </c>
-      <c r="AG38" s="35"/>
+      <c r="AG38" s="34"/>
       <c r="AH38" s="17">
         <v>0.28333333333333299</v>
       </c>
@@ -3841,7 +3843,7 @@
       <c r="K40" s="5">
         <v>10.060000419616699</v>
       </c>
-      <c r="L40" s="35" t="s">
+      <c r="L40" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M40" s="5">
@@ -3862,7 +3864,7 @@
       <c r="R40" s="5">
         <v>9.4899997711181605</v>
       </c>
-      <c r="S40" s="35" t="s">
+      <c r="S40" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T40" s="5">
@@ -3871,10 +3873,10 @@
       <c r="U40" s="5">
         <v>10.1000003814697</v>
       </c>
-      <c r="V40" s="36" t="s">
+      <c r="V40" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W40" s="36" t="s">
+      <c r="W40" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X40" s="5">
@@ -3883,7 +3885,7 @@
       <c r="Y40" s="17">
         <v>0.41805555555555601</v>
       </c>
-      <c r="Z40" s="35" t="s">
+      <c r="Z40" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA40" s="5">
@@ -3904,7 +3906,7 @@
       <c r="AF40" s="5">
         <v>10.1000003814697</v>
       </c>
-      <c r="AG40" s="35" t="s">
+      <c r="AG40" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH40" s="17">
@@ -3922,7 +3924,7 @@
       <c r="AL40" s="5">
         <v>10.1099996566772</v>
       </c>
-      <c r="AM40" s="36" t="s">
+      <c r="AM40" s="40" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3946,7 +3948,7 @@
       <c r="K41" s="5">
         <v>18.450000762939499</v>
       </c>
-      <c r="L41" s="35"/>
+      <c r="L41" s="34"/>
       <c r="M41" s="5">
         <v>18.5100002288818</v>
       </c>
@@ -3965,22 +3967,22 @@
       <c r="R41" s="5">
         <v>18.559999465942401</v>
       </c>
-      <c r="S41" s="35"/>
+      <c r="S41" s="34"/>
       <c r="T41" s="5">
         <v>18.4799995422363</v>
       </c>
       <c r="U41" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
       <c r="X41" s="5">
         <v>18.430000305175799</v>
       </c>
       <c r="Y41" s="17">
         <v>0.27777777777777801</v>
       </c>
-      <c r="Z41" s="35"/>
+      <c r="Z41" s="34"/>
       <c r="AA41" s="5">
         <v>18.329999923706101</v>
       </c>
@@ -3999,7 +4001,7 @@
       <c r="AF41" s="5">
         <v>19.069999694824201</v>
       </c>
-      <c r="AG41" s="35"/>
+      <c r="AG41" s="34"/>
       <c r="AH41" s="17">
         <v>0.28333333333333299</v>
       </c>
@@ -4013,7 +4015,7 @@
       <c r="AL41" s="5">
         <v>18.379999160766602</v>
       </c>
-      <c r="AM41" s="36"/>
+      <c r="AM41" s="40"/>
     </row>
     <row r="42" spans="1:39">
       <c r="A42" s="1"/>
@@ -4057,7 +4059,7 @@
       <c r="K43" s="23">
         <v>0.42013888888888901</v>
       </c>
-      <c r="L43" s="35" t="s">
+      <c r="L43" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M43" s="7">
@@ -4078,7 +4080,7 @@
       <c r="R43" s="5">
         <v>10</v>
       </c>
-      <c r="S43" s="35" t="s">
+      <c r="S43" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T43" s="5">
@@ -4087,10 +4089,10 @@
       <c r="U43" s="5">
         <v>9.5500001907348597</v>
       </c>
-      <c r="V43" s="36" t="s">
+      <c r="V43" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W43" s="36" t="s">
+      <c r="W43" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X43" s="17">
@@ -4099,19 +4101,19 @@
       <c r="Y43" s="7">
         <v>10.069999694824199</v>
       </c>
-      <c r="Z43" s="35" t="s">
+      <c r="Z43" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA43" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AB43" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="34" t="s">
+      <c r="AB43" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="35" t="s">
         <v>1</v>
       </c>
       <c r="AE43" s="5">
@@ -4120,7 +4122,7 @@
       <c r="AF43" s="9">
         <v>10.050000190734901</v>
       </c>
-      <c r="AG43" s="35" t="s">
+      <c r="AG43" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH43" s="5">
@@ -4162,7 +4164,7 @@
       <c r="K44" s="17">
         <v>0.27222222222222198</v>
       </c>
-      <c r="L44" s="35"/>
+      <c r="L44" s="34"/>
       <c r="M44" s="7">
         <v>18.5100002288818</v>
       </c>
@@ -4181,33 +4183,33 @@
       <c r="R44" s="5">
         <v>18.370000839233398</v>
       </c>
-      <c r="S44" s="35"/>
+      <c r="S44" s="34"/>
       <c r="T44" s="5">
         <v>18.329999923706101</v>
       </c>
       <c r="U44" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
       <c r="X44" s="5">
         <v>18.459999084472699</v>
       </c>
       <c r="Y44" s="7">
         <v>18.350000381469702</v>
       </c>
-      <c r="Z44" s="35"/>
+      <c r="Z44" s="34"/>
       <c r="AA44" s="37"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="34"/>
-      <c r="AD44" s="34"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="35"/>
+      <c r="AD44" s="35"/>
       <c r="AE44" s="5">
         <v>18.350000381469702</v>
       </c>
       <c r="AF44" s="5">
         <v>18.299999237060501</v>
       </c>
-      <c r="AG44" s="35"/>
+      <c r="AG44" s="34"/>
       <c r="AH44" s="5">
         <v>18.299999237060501</v>
       </c>
@@ -4269,7 +4271,7 @@
       <c r="K46" s="5">
         <v>9.3100004196166992</v>
       </c>
-      <c r="L46" s="35" t="s">
+      <c r="L46" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M46" s="5">
@@ -4290,7 +4292,7 @@
       <c r="R46" s="5">
         <v>9.5</v>
       </c>
-      <c r="S46" s="35" t="s">
+      <c r="S46" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T46" s="5">
@@ -4299,10 +4301,10 @@
       <c r="U46" s="5">
         <v>9.3599996566772496</v>
       </c>
-      <c r="V46" s="36" t="s">
+      <c r="V46" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W46" s="36" t="s">
+      <c r="W46" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X46" s="5">
@@ -4311,7 +4313,7 @@
       <c r="Y46" s="5">
         <v>9.2799997329711896</v>
       </c>
-      <c r="Z46" s="35" t="s">
+      <c r="Z46" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA46" s="5">
@@ -4332,7 +4334,7 @@
       <c r="AF46" s="5">
         <v>9.4700002670288104</v>
       </c>
-      <c r="AG46" s="35" t="s">
+      <c r="AG46" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH46" s="5">
@@ -4374,7 +4376,7 @@
       <c r="K47" s="5">
         <v>18.430000305175799</v>
       </c>
-      <c r="L47" s="35"/>
+      <c r="L47" s="34"/>
       <c r="M47" s="5">
         <v>18.420000076293899</v>
       </c>
@@ -4393,22 +4395,22 @@
       <c r="R47" s="5">
         <v>18.360000610351602</v>
       </c>
-      <c r="S47" s="35"/>
+      <c r="S47" s="34"/>
       <c r="T47" s="5">
         <v>18.340000152587901</v>
       </c>
       <c r="U47" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
       <c r="X47" s="5">
         <v>18.389999389648398</v>
       </c>
       <c r="Y47" s="5">
         <v>18.399999618530298</v>
       </c>
-      <c r="Z47" s="35"/>
+      <c r="Z47" s="34"/>
       <c r="AA47" s="5">
         <v>18.360000610351602</v>
       </c>
@@ -4427,7 +4429,7 @@
       <c r="AF47" s="5">
         <v>18.469999313354499</v>
       </c>
-      <c r="AG47" s="35"/>
+      <c r="AG47" s="34"/>
       <c r="AH47" s="5">
         <v>18.399999618530298</v>
       </c>
@@ -4483,34 +4485,34 @@
       <c r="I49" s="22">
         <v>0.41180555555555598</v>
       </c>
-      <c r="J49" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="K49" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="L49" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="M49" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="N49" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="O49" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="P49" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="34" t="s">
+      <c r="J49" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="M49" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N49" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="O49" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="P49" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="35" t="s">
         <v>1</v>
       </c>
       <c r="R49" s="5">
         <v>9.4600000381469709</v>
       </c>
-      <c r="S49" s="35" t="s">
+      <c r="S49" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T49" s="5">
@@ -4519,10 +4521,10 @@
       <c r="U49" s="5">
         <v>9.4799995422363299</v>
       </c>
-      <c r="V49" s="36" t="s">
+      <c r="V49" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W49" s="36" t="s">
+      <c r="W49" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X49" s="5">
@@ -4531,13 +4533,13 @@
       <c r="Y49" s="5">
         <v>9.3999996185302699</v>
       </c>
-      <c r="Z49" s="35" t="s">
+      <c r="Z49" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA49" s="5">
         <v>9.5100002288818395</v>
       </c>
-      <c r="AB49" s="34" t="s">
+      <c r="AB49" s="35" t="s">
         <v>1</v>
       </c>
       <c r="AC49" s="5">
@@ -4552,7 +4554,7 @@
       <c r="AF49" s="5">
         <v>9.4399995803833008</v>
       </c>
-      <c r="AG49" s="35" t="s">
+      <c r="AG49" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH49" s="5">
@@ -4587,37 +4589,37 @@
       <c r="I50" s="29">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
       <c r="R50" s="5">
         <v>18.329999923706101</v>
       </c>
-      <c r="S50" s="35"/>
+      <c r="S50" s="34"/>
       <c r="T50" s="5">
         <v>18.340000152587901</v>
       </c>
       <c r="U50" s="5">
         <v>15.180000305175801</v>
       </c>
-      <c r="V50" s="36"/>
-      <c r="W50" s="36"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
       <c r="X50" s="5">
         <v>18.389999389648398</v>
       </c>
       <c r="Y50" s="5">
         <v>18.329999923706101</v>
       </c>
-      <c r="Z50" s="35"/>
+      <c r="Z50" s="34"/>
       <c r="AA50" s="5">
         <v>18.340000152587901</v>
       </c>
-      <c r="AB50" s="34"/>
+      <c r="AB50" s="35"/>
       <c r="AC50" s="5">
         <v>18.340000152587901</v>
       </c>
@@ -4630,7 +4632,7 @@
       <c r="AF50" s="5">
         <v>18.409999847412099</v>
       </c>
-      <c r="AG50" s="35"/>
+      <c r="AG50" s="34"/>
       <c r="AH50" s="5">
         <v>18.350000381469702</v>
       </c>
@@ -4690,7 +4692,7 @@
       <c r="K52" s="5">
         <v>9.4700002670288104</v>
       </c>
-      <c r="L52" s="35" t="s">
+      <c r="L52" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M52" s="5">
@@ -4711,7 +4713,7 @@
       <c r="R52" s="5">
         <v>9.4099998474121094</v>
       </c>
-      <c r="S52" s="35" t="s">
+      <c r="S52" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T52" s="5">
@@ -4720,10 +4722,10 @@
       <c r="U52" s="5">
         <v>9.4200000762939506</v>
       </c>
-      <c r="V52" s="36" t="s">
+      <c r="V52" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W52" s="36" t="s">
+      <c r="W52" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X52" s="5">
@@ -4732,7 +4734,7 @@
       <c r="Y52" s="5">
         <v>9.4200000762939506</v>
       </c>
-      <c r="Z52" s="35" t="s">
+      <c r="Z52" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA52" s="5">
@@ -4753,25 +4755,25 @@
       <c r="AF52" s="5">
         <v>9.4700002670288104</v>
       </c>
-      <c r="AG52" s="35" t="s">
+      <c r="AG52" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH52" s="17">
         <v>0.40625</v>
       </c>
-      <c r="AI52" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ52" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK52" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL52" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM52" s="34" t="s">
+      <c r="AI52" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ52" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL52" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM52" s="35" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4794,7 +4796,7 @@
       <c r="K53" s="5">
         <v>18.360000610351602</v>
       </c>
-      <c r="L53" s="35"/>
+      <c r="L53" s="34"/>
       <c r="M53" s="9">
         <v>15.069999694824199</v>
       </c>
@@ -4811,22 +4813,22 @@
       <c r="R53" s="5">
         <v>18.350000381469702</v>
       </c>
-      <c r="S53" s="35"/>
+      <c r="S53" s="34"/>
       <c r="T53" s="5">
         <v>18.319999694824201</v>
       </c>
       <c r="U53" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V53" s="36"/>
-      <c r="W53" s="36"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
       <c r="X53" s="5">
         <v>18.309999465942401</v>
       </c>
       <c r="Y53" s="5">
         <v>18.329999923706101</v>
       </c>
-      <c r="Z53" s="35"/>
+      <c r="Z53" s="34"/>
       <c r="AA53" s="5">
         <v>18.319999694824201</v>
       </c>
@@ -4845,15 +4847,15 @@
       <c r="AF53" s="5">
         <v>18.5</v>
       </c>
-      <c r="AG53" s="35"/>
+      <c r="AG53" s="34"/>
       <c r="AH53" s="23">
         <v>6.8750000000000006E-2</v>
       </c>
-      <c r="AI53" s="34"/>
-      <c r="AJ53" s="34"/>
-      <c r="AK53" s="34"/>
-      <c r="AL53" s="34"/>
-      <c r="AM53" s="34"/>
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="35"/>
+      <c r="AM53" s="35"/>
     </row>
     <row r="54" spans="1:39">
       <c r="A54" s="1"/>
@@ -4895,7 +4897,7 @@
       <c r="K55" s="17">
         <v>0.405555555555556</v>
       </c>
-      <c r="L55" s="35" t="s">
+      <c r="L55" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M55" s="5">
@@ -4916,7 +4918,7 @@
       <c r="R55" s="5">
         <v>9.4099998474121094</v>
       </c>
-      <c r="S55" s="35" t="s">
+      <c r="S55" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T55" s="5">
@@ -4925,10 +4927,10 @@
       <c r="U55" s="5">
         <v>9.3599996566772496</v>
       </c>
-      <c r="V55" s="36" t="s">
+      <c r="V55" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W55" s="36" t="s">
+      <c r="W55" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X55" s="17">
@@ -4937,7 +4939,7 @@
       <c r="Y55" s="5">
         <v>9.3400001525878906</v>
       </c>
-      <c r="Z55" s="35" t="s">
+      <c r="Z55" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA55" s="5">
@@ -4958,7 +4960,7 @@
       <c r="AF55" s="5">
         <v>9.4200000762939506</v>
       </c>
-      <c r="AG55" s="35" t="s">
+      <c r="AG55" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH55" s="5">
@@ -4998,7 +5000,7 @@
       <c r="K56" s="17">
         <v>0.27291666666666697</v>
       </c>
-      <c r="L56" s="35"/>
+      <c r="L56" s="34"/>
       <c r="M56" s="5">
         <v>18.350000381469702</v>
       </c>
@@ -5017,22 +5019,22 @@
       <c r="R56" s="5">
         <v>18.329999923706101</v>
       </c>
-      <c r="S56" s="35"/>
+      <c r="S56" s="34"/>
       <c r="T56" s="5">
         <v>18.340000152587901</v>
       </c>
       <c r="U56" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V56" s="36"/>
-      <c r="W56" s="36"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
       <c r="X56" s="17">
         <v>0.27638888888888902</v>
       </c>
       <c r="Y56" s="5">
         <v>18.329999923706101</v>
       </c>
-      <c r="Z56" s="35"/>
+      <c r="Z56" s="34"/>
       <c r="AA56" s="5">
         <v>18.340000152587901</v>
       </c>
@@ -5051,7 +5053,7 @@
       <c r="AF56" s="5">
         <v>18.389999389648398</v>
       </c>
-      <c r="AG56" s="35"/>
+      <c r="AG56" s="34"/>
       <c r="AH56" s="5">
         <v>18.329999923706101</v>
       </c>
@@ -5110,7 +5112,7 @@
       <c r="K58" s="5">
         <v>9.4399995803833008</v>
       </c>
-      <c r="L58" s="35" t="s">
+      <c r="L58" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M58" s="5">
@@ -5131,19 +5133,19 @@
       <c r="R58" s="5">
         <v>9.4200000762939506</v>
       </c>
-      <c r="S58" s="35" t="s">
+      <c r="S58" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T58" s="5">
         <v>9.4399995803833008</v>
       </c>
-      <c r="U58" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="V58" s="36" t="s">
+      <c r="U58" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V58" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W58" s="36" t="s">
+      <c r="W58" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X58" s="17">
@@ -5152,7 +5154,7 @@
       <c r="Y58" s="5">
         <v>9.3400001525878906</v>
       </c>
-      <c r="Z58" s="35" t="s">
+      <c r="Z58" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA58" s="5">
@@ -5173,7 +5175,7 @@
       <c r="AF58" s="5">
         <v>9.4200000762939506</v>
       </c>
-      <c r="AG58" s="35" t="s">
+      <c r="AG58" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH58" s="5">
@@ -5213,7 +5215,7 @@
       <c r="K59" s="5">
         <v>18.340000152587901</v>
       </c>
-      <c r="L59" s="35"/>
+      <c r="L59" s="34"/>
       <c r="M59" s="5">
         <v>18.409999847412099</v>
       </c>
@@ -5232,20 +5234,20 @@
       <c r="R59" s="5">
         <v>18.370000839233398</v>
       </c>
-      <c r="S59" s="35"/>
+      <c r="S59" s="34"/>
       <c r="T59" s="5">
         <v>18.340000152587901</v>
       </c>
-      <c r="U59" s="34"/>
-      <c r="V59" s="36"/>
-      <c r="W59" s="36"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="40"/>
       <c r="X59" s="17">
         <v>0.27638888888888902</v>
       </c>
       <c r="Y59" s="5">
         <v>18.329999923706101</v>
       </c>
-      <c r="Z59" s="35"/>
+      <c r="Z59" s="34"/>
       <c r="AA59" s="5">
         <v>18.399999618530298</v>
       </c>
@@ -5264,7 +5266,7 @@
       <c r="AF59" s="5">
         <v>18.389999389648398</v>
       </c>
-      <c r="AG59" s="35"/>
+      <c r="AG59" s="34"/>
       <c r="AH59" s="5">
         <v>18.329999923706101</v>
       </c>
@@ -5323,7 +5325,7 @@
       <c r="K61" s="5">
         <v>9.5900001525878906</v>
       </c>
-      <c r="L61" s="35" t="s">
+      <c r="L61" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M61" s="5">
@@ -5344,19 +5346,19 @@
       <c r="R61" s="7">
         <v>10.289999961853001</v>
       </c>
-      <c r="S61" s="35" t="s">
+      <c r="S61" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T61" s="9">
         <v>10.1199998855591</v>
       </c>
-      <c r="U61" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="V61" s="36" t="s">
+      <c r="U61" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V61" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W61" s="36" t="s">
+      <c r="W61" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X61" s="9">
@@ -5365,7 +5367,7 @@
       <c r="Y61" s="5">
         <v>9.5600004196166992</v>
       </c>
-      <c r="Z61" s="35" t="s">
+      <c r="Z61" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA61" s="5">
@@ -5386,7 +5388,7 @@
       <c r="AF61" s="5">
         <v>9.5500001907348597</v>
       </c>
-      <c r="AG61" s="35" t="s">
+      <c r="AG61" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH61" s="5">
@@ -5398,10 +5400,10 @@
       <c r="AJ61" s="9">
         <v>10.079999923706101</v>
       </c>
-      <c r="AK61" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL61" s="34" t="s">
+      <c r="AK61" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL61" s="35" t="s">
         <v>1</v>
       </c>
       <c r="AM61" s="5">
@@ -5426,7 +5428,7 @@
       <c r="K62" s="5">
         <v>18.379999160766602</v>
       </c>
-      <c r="L62" s="35"/>
+      <c r="L62" s="34"/>
       <c r="M62" s="5">
         <v>18.5100002288818</v>
       </c>
@@ -5445,20 +5447,20 @@
       <c r="R62" s="7">
         <v>18.389999389648398</v>
       </c>
-      <c r="S62" s="35"/>
+      <c r="S62" s="34"/>
       <c r="T62" s="5">
         <v>18.319999694824201</v>
       </c>
-      <c r="U62" s="34"/>
-      <c r="V62" s="36"/>
-      <c r="W62" s="36"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
       <c r="X62" s="5">
         <v>18.459999084472699</v>
       </c>
       <c r="Y62" s="5">
         <v>18.440000534057599</v>
       </c>
-      <c r="Z62" s="35"/>
+      <c r="Z62" s="34"/>
       <c r="AA62" s="5">
         <v>18.440000534057599</v>
       </c>
@@ -5477,7 +5479,7 @@
       <c r="AF62" s="5">
         <v>18.389999389648398</v>
       </c>
-      <c r="AG62" s="35"/>
+      <c r="AG62" s="34"/>
       <c r="AH62" s="5">
         <v>18.329999923706101</v>
       </c>
@@ -5487,8 +5489,8 @@
       <c r="AJ62" s="5">
         <v>18.340000152587901</v>
       </c>
-      <c r="AK62" s="34"/>
-      <c r="AL62" s="34"/>
+      <c r="AK62" s="35"/>
+      <c r="AL62" s="35"/>
       <c r="AM62" s="5">
         <v>18.420000076293899</v>
       </c>
@@ -5532,7 +5534,7 @@
       <c r="K64" s="5">
         <v>9.5299997329711896</v>
       </c>
-      <c r="L64" s="35" t="s">
+      <c r="L64" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M64" s="5">
@@ -5553,7 +5555,7 @@
       <c r="R64" s="5">
         <v>9.3800001144409197</v>
       </c>
-      <c r="S64" s="35" t="s">
+      <c r="S64" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T64" s="5">
@@ -5562,10 +5564,10 @@
       <c r="U64" s="17">
         <v>0.41597222222222202</v>
       </c>
-      <c r="V64" s="36" t="s">
+      <c r="V64" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W64" s="36" t="s">
+      <c r="W64" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X64" s="5">
@@ -5574,7 +5576,7 @@
       <c r="Y64" s="5">
         <v>10</v>
       </c>
-      <c r="Z64" s="35" t="s">
+      <c r="Z64" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA64" s="5">
@@ -5595,7 +5597,7 @@
       <c r="AF64" s="5">
         <v>9.5699996948242205</v>
       </c>
-      <c r="AG64" s="35" t="s">
+      <c r="AG64" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH64" s="5">
@@ -5604,16 +5606,16 @@
       <c r="AI64" s="5">
         <v>9.5299997329711896</v>
       </c>
-      <c r="AJ64" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK64" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL64" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM64" s="34" t="s">
+      <c r="AJ64" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK64" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL64" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM64" s="35" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5636,7 +5638,7 @@
       <c r="K65" s="5">
         <v>18.350000381469702</v>
       </c>
-      <c r="L65" s="35"/>
+      <c r="L65" s="34"/>
       <c r="M65" s="5">
         <v>18.360000610351602</v>
       </c>
@@ -5655,22 +5657,22 @@
       <c r="R65" s="5">
         <v>18.370000839233398</v>
       </c>
-      <c r="S65" s="35"/>
+      <c r="S65" s="34"/>
       <c r="T65" s="5">
         <v>18.360000610351602</v>
       </c>
       <c r="U65" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V65" s="36"/>
-      <c r="W65" s="36"/>
+      <c r="V65" s="40"/>
+      <c r="W65" s="40"/>
       <c r="X65" s="5">
         <v>18.360000610351602</v>
       </c>
       <c r="Y65" s="5">
         <v>18.350000381469702</v>
       </c>
-      <c r="Z65" s="35"/>
+      <c r="Z65" s="34"/>
       <c r="AA65" s="5">
         <v>18.389999389648398</v>
       </c>
@@ -5689,17 +5691,17 @@
       <c r="AF65" s="5">
         <v>18.399999618530298</v>
       </c>
-      <c r="AG65" s="35"/>
+      <c r="AG65" s="34"/>
       <c r="AH65" s="5">
         <v>18.379999160766602</v>
       </c>
       <c r="AI65" s="9">
         <v>11.210000038146999</v>
       </c>
-      <c r="AJ65" s="34"/>
-      <c r="AK65" s="34"/>
-      <c r="AL65" s="34"/>
-      <c r="AM65" s="34"/>
+      <c r="AJ65" s="35"/>
+      <c r="AK65" s="35"/>
+      <c r="AL65" s="35"/>
+      <c r="AM65" s="35"/>
     </row>
     <row r="66" spans="1:39">
       <c r="B66" s="1"/>
@@ -5732,19 +5734,19 @@
       <c r="H67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I67" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="J67" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="K67" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="L67" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="M67" s="34" t="s">
+      <c r="I67" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J67" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K67" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L67" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="M67" s="35" t="s">
         <v>1</v>
       </c>
       <c r="N67" s="7">
@@ -5762,28 +5764,28 @@
       <c r="R67" s="7">
         <v>10.0900001525879</v>
       </c>
-      <c r="S67" s="35" t="s">
+      <c r="S67" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T67" s="5">
         <v>9.5600004196166992</v>
       </c>
-      <c r="U67" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="V67" s="36" t="s">
+      <c r="U67" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V67" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W67" s="36" t="s">
+      <c r="W67" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="X67" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y67" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z67" s="35" t="s">
+      <c r="X67" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z67" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA67" s="9">
@@ -5801,10 +5803,10 @@
       <c r="AE67" s="5">
         <v>9.4899997711181605</v>
       </c>
-      <c r="AF67" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG67" s="35" t="s">
+      <c r="AF67" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG67" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH67" s="9">
@@ -5836,11 +5838,11 @@
       <c r="H68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="34"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
       <c r="N68" s="7">
         <v>18.370000839233398</v>
       </c>
@@ -5856,16 +5858,16 @@
       <c r="R68" s="7">
         <v>18.329999923706101</v>
       </c>
-      <c r="S68" s="35"/>
+      <c r="S68" s="34"/>
       <c r="T68" s="5">
         <v>18.319999694824201</v>
       </c>
-      <c r="U68" s="34"/>
-      <c r="V68" s="36"/>
-      <c r="W68" s="36"/>
-      <c r="X68" s="34"/>
-      <c r="Y68" s="34"/>
-      <c r="Z68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="40"/>
+      <c r="W68" s="40"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="34"/>
       <c r="AA68" s="5">
         <v>18.350000381469702</v>
       </c>
@@ -5881,8 +5883,8 @@
       <c r="AE68" s="5">
         <v>18.329999923706101</v>
       </c>
-      <c r="AF68" s="34"/>
-      <c r="AG68" s="35"/>
+      <c r="AF68" s="35"/>
+      <c r="AG68" s="34"/>
       <c r="AH68" s="5">
         <v>18.329999923706101</v>
       </c>
@@ -5942,7 +5944,7 @@
       <c r="K70" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L70" s="35" t="s">
+      <c r="L70" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M70" s="5">
@@ -5963,7 +5965,7 @@
       <c r="R70" s="5">
         <v>9.2399997711181605</v>
       </c>
-      <c r="S70" s="35" t="s">
+      <c r="S70" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T70" s="5">
@@ -5972,10 +5974,10 @@
       <c r="U70" s="5">
         <v>9.1899995803833008</v>
       </c>
-      <c r="V70" s="36" t="s">
+      <c r="V70" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W70" s="36" t="s">
+      <c r="W70" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X70" s="5">
@@ -5984,7 +5986,7 @@
       <c r="Y70" s="5">
         <v>9.1899995803833008</v>
       </c>
-      <c r="Z70" s="35" t="s">
+      <c r="Z70" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA70" s="5">
@@ -6005,7 +6007,7 @@
       <c r="AF70" s="5">
         <v>9.2899999618530291</v>
       </c>
-      <c r="AG70" s="35" t="s">
+      <c r="AG70" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH70" s="5">
@@ -6044,7 +6046,7 @@
         <v>18.5</v>
       </c>
       <c r="K71" s="37"/>
-      <c r="L71" s="35"/>
+      <c r="L71" s="34"/>
       <c r="M71" s="5">
         <v>19.379999160766602</v>
       </c>
@@ -6063,22 +6065,22 @@
       <c r="R71" s="5">
         <v>19.409999847412099</v>
       </c>
-      <c r="S71" s="35"/>
+      <c r="S71" s="34"/>
       <c r="T71" s="5">
         <v>19.409999847412099</v>
       </c>
       <c r="U71" s="26">
         <v>16.309999465942401</v>
       </c>
-      <c r="V71" s="36"/>
-      <c r="W71" s="36"/>
+      <c r="V71" s="40"/>
+      <c r="W71" s="40"/>
       <c r="X71" s="5">
         <v>19.370000839233398</v>
       </c>
       <c r="Y71" s="5">
         <v>19.440000534057599</v>
       </c>
-      <c r="Z71" s="35"/>
+      <c r="Z71" s="34"/>
       <c r="AA71" s="5">
         <v>19.450000762939499</v>
       </c>
@@ -6097,7 +6099,7 @@
       <c r="AF71" s="5">
         <v>19.299999237060501</v>
       </c>
-      <c r="AG71" s="35"/>
+      <c r="AG71" s="34"/>
       <c r="AH71" s="5">
         <v>20.5100002288818</v>
       </c>
@@ -6157,7 +6159,7 @@
       <c r="K73" s="5">
         <v>10</v>
       </c>
-      <c r="L73" s="35" t="s">
+      <c r="L73" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M73" s="17">
@@ -6178,7 +6180,7 @@
       <c r="R73" s="7">
         <v>10.0299997329712</v>
       </c>
-      <c r="S73" s="35" t="s">
+      <c r="S73" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T73" s="5">
@@ -6187,10 +6189,10 @@
       <c r="U73" s="23">
         <v>0.41805555555555601</v>
       </c>
-      <c r="V73" s="36" t="s">
+      <c r="V73" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W73" s="36" t="s">
+      <c r="W73" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X73" s="17">
@@ -6199,7 +6201,7 @@
       <c r="Y73" s="9">
         <v>10.1400003433228</v>
       </c>
-      <c r="Z73" s="35" t="s">
+      <c r="Z73" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA73" s="18">
@@ -6214,13 +6216,13 @@
       <c r="AD73" s="5">
         <v>9.5699996948242205</v>
       </c>
-      <c r="AE73" s="34" t="s">
+      <c r="AE73" s="35" t="s">
         <v>1</v>
       </c>
       <c r="AF73" s="9">
         <v>10.5299997329712</v>
       </c>
-      <c r="AG73" s="35" t="s">
+      <c r="AG73" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH73" s="9">
@@ -6261,7 +6263,7 @@
       <c r="K74" s="5">
         <v>18.360000610351602</v>
       </c>
-      <c r="L74" s="35"/>
+      <c r="L74" s="34"/>
       <c r="M74" s="17">
         <v>0.27430555555555602</v>
       </c>
@@ -6280,22 +6282,22 @@
       <c r="R74" s="7">
         <v>18.379999160766602</v>
       </c>
-      <c r="S74" s="35"/>
+      <c r="S74" s="34"/>
       <c r="T74" s="5">
         <v>18.319999694824201</v>
       </c>
       <c r="U74" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V74" s="36"/>
-      <c r="W74" s="36"/>
+      <c r="V74" s="40"/>
+      <c r="W74" s="40"/>
       <c r="X74" s="17">
         <v>0.27152777777777798</v>
       </c>
       <c r="Y74" s="5">
         <v>18.309999465942401</v>
       </c>
-      <c r="Z74" s="35"/>
+      <c r="Z74" s="34"/>
       <c r="AA74" s="18">
         <v>0.27222222222222198</v>
       </c>
@@ -6308,11 +6310,11 @@
       <c r="AD74" s="5">
         <v>18.329999923706101</v>
       </c>
-      <c r="AE74" s="34"/>
+      <c r="AE74" s="35"/>
       <c r="AF74" s="5">
         <v>18.340000152587901</v>
       </c>
-      <c r="AG74" s="35"/>
+      <c r="AG74" s="34"/>
       <c r="AH74" s="5">
         <v>18.319999694824201</v>
       </c>
@@ -6372,7 +6374,7 @@
       <c r="K76" s="5">
         <v>9.4499998092651403</v>
       </c>
-      <c r="L76" s="35" t="s">
+      <c r="L76" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M76" s="5">
@@ -6393,7 +6395,7 @@
       <c r="R76" s="9">
         <v>10.0299997329712</v>
       </c>
-      <c r="S76" s="35" t="s">
+      <c r="S76" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T76" s="9">
@@ -6402,10 +6404,10 @@
       <c r="U76" s="5">
         <v>9.5299997329711896</v>
       </c>
-      <c r="V76" s="36" t="s">
+      <c r="V76" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W76" s="36" t="s">
+      <c r="W76" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X76" s="17">
@@ -6414,13 +6416,13 @@
       <c r="Y76" s="9">
         <v>11.560000419616699</v>
       </c>
-      <c r="Z76" s="35" t="s">
+      <c r="Z76" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA76" s="5">
         <v>9.4700002670288104</v>
       </c>
-      <c r="AB76" s="34" t="s">
+      <c r="AB76" s="35" t="s">
         <v>1</v>
       </c>
       <c r="AC76" s="17">
@@ -6435,19 +6437,19 @@
       <c r="AF76" s="5">
         <v>9.4499998092651403</v>
       </c>
-      <c r="AG76" s="35" t="s">
+      <c r="AG76" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH76" s="18">
         <v>0.41875000000000001</v>
       </c>
-      <c r="AI76" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ76" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK76" s="34" t="s">
+      <c r="AI76" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ76" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK76" s="35" t="s">
         <v>1</v>
       </c>
       <c r="AL76" s="7">
@@ -6475,7 +6477,7 @@
       <c r="K77" s="9">
         <v>15.1199998855591</v>
       </c>
-      <c r="L77" s="35"/>
+      <c r="L77" s="34"/>
       <c r="M77" s="5">
         <v>18.430000305175799</v>
       </c>
@@ -6494,26 +6496,26 @@
       <c r="R77" s="5">
         <v>18.329999923706101</v>
       </c>
-      <c r="S77" s="35"/>
+      <c r="S77" s="34"/>
       <c r="T77" s="5">
         <v>18.329999923706101</v>
       </c>
       <c r="U77" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V77" s="36"/>
-      <c r="W77" s="36"/>
+      <c r="V77" s="40"/>
+      <c r="W77" s="40"/>
       <c r="X77" s="17">
         <v>0.27361111111111103</v>
       </c>
       <c r="Y77" s="5">
         <v>18.350000381469702</v>
       </c>
-      <c r="Z77" s="35"/>
+      <c r="Z77" s="34"/>
       <c r="AA77" s="5">
         <v>18.360000610351602</v>
       </c>
-      <c r="AB77" s="34"/>
+      <c r="AB77" s="35"/>
       <c r="AC77" s="5" t="s">
         <v>70</v>
       </c>
@@ -6526,13 +6528,13 @@
       <c r="AF77" s="5">
         <v>18.389999389648398</v>
       </c>
-      <c r="AG77" s="35"/>
+      <c r="AG77" s="34"/>
       <c r="AH77" s="18">
         <v>0.27291666666666697</v>
       </c>
-      <c r="AI77" s="34"/>
-      <c r="AJ77" s="34"/>
-      <c r="AK77" s="34"/>
+      <c r="AI77" s="35"/>
+      <c r="AJ77" s="35"/>
+      <c r="AK77" s="35"/>
       <c r="AL77" s="7">
         <v>18.379999160766602</v>
       </c>
@@ -6580,7 +6582,7 @@
       <c r="K79" s="5">
         <v>9.5600004196166992</v>
       </c>
-      <c r="L79" s="35" t="s">
+      <c r="L79" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M79" s="5">
@@ -6598,31 +6600,31 @@
       <c r="Q79" s="5">
         <v>9.5600004196166992</v>
       </c>
-      <c r="R79" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="S79" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="T79" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="U79" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="V79" s="36" t="s">
+      <c r="R79" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="S79" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T79" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="U79" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V79" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W79" s="36" t="s">
+      <c r="W79" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="X79" s="34" t="s">
+      <c r="X79" s="35" t="s">
         <v>1</v>
       </c>
       <c r="Y79" s="5">
         <v>9.5600004196166992</v>
       </c>
-      <c r="Z79" s="35" t="s">
+      <c r="Z79" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA79" s="5">
@@ -6643,7 +6645,7 @@
       <c r="AF79" s="5">
         <v>9.5500001907348597</v>
       </c>
-      <c r="AG79" s="35" t="s">
+      <c r="AG79" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH79" s="5">
@@ -6684,7 +6686,7 @@
       <c r="K80" s="5">
         <v>18.309999465942401</v>
       </c>
-      <c r="L80" s="35"/>
+      <c r="L80" s="34"/>
       <c r="M80" s="5">
         <v>18.340000152587901</v>
       </c>
@@ -6700,17 +6702,17 @@
       <c r="Q80" s="5">
         <v>18.340000152587901</v>
       </c>
-      <c r="R80" s="34"/>
-      <c r="S80" s="34"/>
-      <c r="T80" s="34"/>
-      <c r="U80" s="34"/>
-      <c r="V80" s="36"/>
-      <c r="W80" s="36"/>
-      <c r="X80" s="34"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35"/>
+      <c r="V80" s="40"/>
+      <c r="W80" s="40"/>
+      <c r="X80" s="35"/>
       <c r="Y80" s="5">
         <v>18.309999465942401</v>
       </c>
-      <c r="Z80" s="35"/>
+      <c r="Z80" s="34"/>
       <c r="AA80" s="5">
         <v>18.319999694824201</v>
       </c>
@@ -6729,7 +6731,7 @@
       <c r="AF80" s="5">
         <v>18.299999237060501</v>
       </c>
-      <c r="AG80" s="35"/>
+      <c r="AG80" s="34"/>
       <c r="AH80" s="5">
         <v>18.329999923706101</v>
       </c>
@@ -6789,7 +6791,7 @@
       <c r="K82" s="5">
         <v>9.5900001525878906</v>
       </c>
-      <c r="L82" s="35" t="s">
+      <c r="L82" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M82" s="5">
@@ -6810,7 +6812,7 @@
       <c r="R82" s="5">
         <v>10</v>
       </c>
-      <c r="S82" s="35" t="s">
+      <c r="S82" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T82" s="5">
@@ -6819,10 +6821,10 @@
       <c r="U82" s="5">
         <v>9.4700002670288104</v>
       </c>
-      <c r="V82" s="36" t="s">
+      <c r="V82" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W82" s="36" t="s">
+      <c r="W82" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X82" s="5">
@@ -6831,7 +6833,7 @@
       <c r="Y82" s="5">
         <v>9.5100002288818395</v>
       </c>
-      <c r="Z82" s="35" t="s">
+      <c r="Z82" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA82" s="5">
@@ -6852,7 +6854,7 @@
       <c r="AF82" s="7">
         <v>10.050000190734901</v>
       </c>
-      <c r="AG82" s="35" t="s">
+      <c r="AG82" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH82" s="9">
@@ -6893,7 +6895,7 @@
       <c r="K83" s="5">
         <v>18.360000610351602</v>
       </c>
-      <c r="L83" s="35"/>
+      <c r="L83" s="34"/>
       <c r="M83" s="5">
         <v>18.340000152587901</v>
       </c>
@@ -6912,22 +6914,22 @@
       <c r="R83" s="5">
         <v>18.360000610351602</v>
       </c>
-      <c r="S83" s="35"/>
+      <c r="S83" s="34"/>
       <c r="T83" s="5">
         <v>18.319999694824201</v>
       </c>
       <c r="U83" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V83" s="36"/>
-      <c r="W83" s="36"/>
+      <c r="V83" s="40"/>
+      <c r="W83" s="40"/>
       <c r="X83" s="5">
         <v>18.309999465942401</v>
       </c>
       <c r="Y83" s="5">
         <v>18.319999694824201</v>
       </c>
-      <c r="Z83" s="35"/>
+      <c r="Z83" s="34"/>
       <c r="AA83" s="5">
         <v>18.350000381469702</v>
       </c>
@@ -6946,7 +6948,7 @@
       <c r="AF83" s="7">
         <v>18.360000610351602</v>
       </c>
-      <c r="AG83" s="35"/>
+      <c r="AG83" s="34"/>
       <c r="AH83" s="5">
         <v>18.309999465942401</v>
       </c>
@@ -7006,10 +7008,10 @@
       <c r="K85" s="9">
         <v>11.5</v>
       </c>
-      <c r="L85" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M85" s="34" t="s">
+      <c r="L85" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M85" s="35" t="s">
         <v>1</v>
       </c>
       <c r="N85" s="7">
@@ -7027,19 +7029,19 @@
       <c r="R85" s="5">
         <v>9.5900001525878906</v>
       </c>
-      <c r="S85" s="35" t="s">
+      <c r="S85" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T85" s="9">
         <v>10.079999923706101</v>
       </c>
-      <c r="U85" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="V85" s="36" t="s">
+      <c r="U85" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V85" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W85" s="36" t="s">
+      <c r="W85" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X85" s="9">
@@ -7048,7 +7050,7 @@
       <c r="Y85" s="7">
         <v>10.1400003433228</v>
       </c>
-      <c r="Z85" s="35" t="s">
+      <c r="Z85" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA85" s="5">
@@ -7069,7 +7071,7 @@
       <c r="AF85" s="5">
         <v>9.5699996948242205</v>
       </c>
-      <c r="AG85" s="35" t="s">
+      <c r="AG85" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH85" s="17">
@@ -7110,8 +7112,8 @@
       <c r="K86" s="5">
         <v>18.350000381469702</v>
       </c>
-      <c r="L86" s="35"/>
-      <c r="M86" s="34"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="35"/>
       <c r="N86" s="7">
         <v>18.440000534057599</v>
       </c>
@@ -7127,20 +7129,20 @@
       <c r="R86" s="5">
         <v>18.370000839233398</v>
       </c>
-      <c r="S86" s="35"/>
+      <c r="S86" s="34"/>
       <c r="T86" s="5">
         <v>18.319999694824201</v>
       </c>
-      <c r="U86" s="34"/>
-      <c r="V86" s="36"/>
-      <c r="W86" s="36"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="40"/>
+      <c r="W86" s="40"/>
       <c r="X86" s="5">
         <v>18.459999084472699</v>
       </c>
       <c r="Y86" s="7">
         <v>18.430000305175799</v>
       </c>
-      <c r="Z86" s="35"/>
+      <c r="Z86" s="34"/>
       <c r="AA86" s="5">
         <v>18.440000534057599</v>
       </c>
@@ -7159,7 +7161,7 @@
       <c r="AF86" s="5">
         <v>18.389999389648398</v>
       </c>
-      <c r="AG86" s="35"/>
+      <c r="AG86" s="34"/>
       <c r="AH86" s="17">
         <v>0.27222222222222198</v>
       </c>
@@ -7219,7 +7221,7 @@
       <c r="K88" s="5">
         <v>9.3299999237060494</v>
       </c>
-      <c r="L88" s="35" t="s">
+      <c r="L88" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M88" s="5">
@@ -7240,7 +7242,7 @@
       <c r="R88" s="5">
         <v>9.3599996566772496</v>
       </c>
-      <c r="S88" s="35" t="s">
+      <c r="S88" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T88" s="5">
@@ -7249,10 +7251,10 @@
       <c r="U88" s="5">
         <v>9.1899995803833008</v>
       </c>
-      <c r="V88" s="36" t="s">
+      <c r="V88" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W88" s="36" t="s">
+      <c r="W88" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X88" s="5">
@@ -7261,16 +7263,16 @@
       <c r="Y88" s="5">
         <v>9.3400001525878906</v>
       </c>
-      <c r="Z88" s="35" t="s">
+      <c r="Z88" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA88" s="5">
         <v>9.2399997711181605</v>
       </c>
-      <c r="AB88" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC88" s="34" t="s">
+      <c r="AB88" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC88" s="35" t="s">
         <v>1</v>
       </c>
       <c r="AD88" s="5">
@@ -7282,7 +7284,7 @@
       <c r="AF88" s="5">
         <v>9.2899999618530291</v>
       </c>
-      <c r="AG88" s="35" t="s">
+      <c r="AG88" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH88" s="5">
@@ -7323,7 +7325,7 @@
       <c r="K89" s="5">
         <v>18.309999465942401</v>
       </c>
-      <c r="L89" s="35"/>
+      <c r="L89" s="34"/>
       <c r="M89" s="5">
         <v>18.309999465942401</v>
       </c>
@@ -7342,27 +7344,27 @@
       <c r="R89" s="5">
         <v>18.299999237060501</v>
       </c>
-      <c r="S89" s="35"/>
+      <c r="S89" s="34"/>
       <c r="T89" s="5">
         <v>18.319999694824201</v>
       </c>
       <c r="U89" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V89" s="36"/>
-      <c r="W89" s="36"/>
+      <c r="V89" s="40"/>
+      <c r="W89" s="40"/>
       <c r="X89" s="5">
         <v>18.309999465942401</v>
       </c>
       <c r="Y89" s="5">
         <v>18.329999923706101</v>
       </c>
-      <c r="Z89" s="35"/>
+      <c r="Z89" s="34"/>
       <c r="AA89" s="9">
         <v>13.560000419616699</v>
       </c>
-      <c r="AB89" s="34"/>
-      <c r="AC89" s="34"/>
+      <c r="AB89" s="35"/>
+      <c r="AC89" s="35"/>
       <c r="AD89" s="5">
         <v>18.309999465942401</v>
       </c>
@@ -7372,7 +7374,7 @@
       <c r="AF89" s="5">
         <v>18.360000610351602</v>
       </c>
-      <c r="AG89" s="35"/>
+      <c r="AG89" s="34"/>
       <c r="AH89" s="5">
         <v>18.319999694824201</v>
       </c>
@@ -7432,10 +7434,10 @@
       <c r="K91" s="5">
         <v>9.5500001907348597</v>
       </c>
-      <c r="L91" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="M91" s="34" t="s">
+      <c r="L91" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M91" s="35" t="s">
         <v>1</v>
       </c>
       <c r="N91" s="5">
@@ -7453,7 +7455,7 @@
       <c r="R91" s="17">
         <v>0.41597222222222202</v>
       </c>
-      <c r="S91" s="35" t="s">
+      <c r="S91" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T91" s="5">
@@ -7462,10 +7464,10 @@
       <c r="U91" s="5">
         <v>9.5500001907348597</v>
       </c>
-      <c r="V91" s="36" t="s">
+      <c r="V91" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W91" s="36" t="s">
+      <c r="W91" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X91" s="18">
@@ -7474,7 +7476,7 @@
       <c r="Y91" s="5">
         <v>9.5699996948242205</v>
       </c>
-      <c r="Z91" s="35" t="s">
+      <c r="Z91" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA91" s="9">
@@ -7495,10 +7497,10 @@
       <c r="AF91" s="5">
         <v>9.5500001907348597</v>
       </c>
-      <c r="AG91" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH91" s="34" t="s">
+      <c r="AG91" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH91" s="35" t="s">
         <v>1</v>
       </c>
       <c r="AI91" s="5">
@@ -7536,8 +7538,8 @@
       <c r="K92" s="5">
         <v>18.350000381469702</v>
       </c>
-      <c r="L92" s="35"/>
-      <c r="M92" s="34"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="35"/>
       <c r="N92" s="5">
         <v>18.329999923706101</v>
       </c>
@@ -7553,22 +7555,22 @@
       <c r="R92" s="17">
         <v>0.27500000000000002</v>
       </c>
-      <c r="S92" s="35"/>
+      <c r="S92" s="34"/>
       <c r="T92" s="5">
         <v>18.319999694824201</v>
       </c>
       <c r="U92" s="5">
         <v>15.189999580383301</v>
       </c>
-      <c r="V92" s="36"/>
-      <c r="W92" s="36"/>
+      <c r="V92" s="40"/>
+      <c r="W92" s="40"/>
       <c r="X92" s="18">
         <v>0.27569444444444402</v>
       </c>
       <c r="Y92" s="5">
         <v>18.319999694824201</v>
       </c>
-      <c r="Z92" s="35"/>
+      <c r="Z92" s="34"/>
       <c r="AA92" s="5">
         <v>18.360000610351602</v>
       </c>
@@ -7587,8 +7589,8 @@
       <c r="AF92" s="5">
         <v>18.399999618530298</v>
       </c>
-      <c r="AG92" s="35"/>
-      <c r="AH92" s="34"/>
+      <c r="AG92" s="34"/>
+      <c r="AH92" s="35"/>
       <c r="AI92" s="5">
         <v>18.350000381469702</v>
       </c>
@@ -7642,10 +7644,10 @@
       <c r="J94" s="9">
         <v>10.0299997329712</v>
       </c>
-      <c r="K94" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="L94" s="35" t="s">
+      <c r="K94" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L94" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M94" s="5">
@@ -7666,19 +7668,19 @@
       <c r="R94" s="5">
         <v>9.5900001525878906</v>
       </c>
-      <c r="S94" s="35" t="s">
+      <c r="S94" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T94" s="9">
         <v>10.060000419616699</v>
       </c>
-      <c r="U94" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="V94" s="36" t="s">
+      <c r="U94" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V94" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W94" s="36" t="s">
+      <c r="W94" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X94" s="9">
@@ -7687,7 +7689,7 @@
       <c r="Y94" s="7">
         <v>10.180000305175801</v>
       </c>
-      <c r="Z94" s="35" t="s">
+      <c r="Z94" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA94" s="5">
@@ -7708,7 +7710,7 @@
       <c r="AF94" s="5">
         <v>9.5699996948242205</v>
       </c>
-      <c r="AG94" s="35" t="s">
+      <c r="AG94" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH94" s="5">
@@ -7746,8 +7748,8 @@
       <c r="J95" s="5">
         <v>18.350000381469702</v>
       </c>
-      <c r="K95" s="34"/>
-      <c r="L95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="34"/>
       <c r="M95" s="5">
         <v>18.420000076293899</v>
       </c>
@@ -7766,20 +7768,20 @@
       <c r="R95" s="5">
         <v>18.370000839233398</v>
       </c>
-      <c r="S95" s="35"/>
+      <c r="S95" s="34"/>
       <c r="T95" s="5">
         <v>18.319999694824201</v>
       </c>
-      <c r="U95" s="34"/>
-      <c r="V95" s="36"/>
-      <c r="W95" s="36"/>
+      <c r="U95" s="35"/>
+      <c r="V95" s="40"/>
+      <c r="W95" s="40"/>
       <c r="X95" s="5">
         <v>18.469999313354499</v>
       </c>
       <c r="Y95" s="7">
         <v>18.430000305175799</v>
       </c>
-      <c r="Z95" s="35"/>
+      <c r="Z95" s="34"/>
       <c r="AA95" s="5">
         <v>18.440000534057599</v>
       </c>
@@ -7798,7 +7800,7 @@
       <c r="AF95" s="5">
         <v>18.389999389648398</v>
       </c>
-      <c r="AG95" s="35"/>
+      <c r="AG95" s="34"/>
       <c r="AH95" s="5">
         <v>18.329999923706101</v>
       </c>
@@ -7858,7 +7860,7 @@
       <c r="K97" s="7">
         <v>10.1000003814697</v>
       </c>
-      <c r="L97" s="35" t="s">
+      <c r="L97" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M97" s="9">
@@ -7879,7 +7881,7 @@
       <c r="R97" s="5">
         <v>9.4600000381469709</v>
       </c>
-      <c r="S97" s="35" t="s">
+      <c r="S97" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T97" s="17">
@@ -7888,10 +7890,10 @@
       <c r="U97" s="17">
         <v>0.40347222222222201</v>
       </c>
-      <c r="V97" s="36" t="s">
+      <c r="V97" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W97" s="36" t="s">
+      <c r="W97" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X97" s="5">
@@ -7900,10 +7902,10 @@
       <c r="Y97" s="9">
         <v>12.189999580383301</v>
       </c>
-      <c r="Z97" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA97" s="34" t="s">
+      <c r="Z97" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="35" t="s">
         <v>1</v>
       </c>
       <c r="AB97" s="23">
@@ -7921,7 +7923,7 @@
       <c r="AF97" s="5">
         <v>9.5900001525878906</v>
       </c>
-      <c r="AG97" s="35" t="s">
+      <c r="AG97" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH97" s="23">
@@ -7930,16 +7932,16 @@
       <c r="AI97" s="5">
         <v>10</v>
       </c>
-      <c r="AJ97" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK97" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL97" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM97" s="34" t="s">
+      <c r="AJ97" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK97" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL97" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM97" s="35" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7962,7 +7964,7 @@
       <c r="K98" s="7">
         <v>18.379999160766602</v>
       </c>
-      <c r="L98" s="35"/>
+      <c r="L98" s="34"/>
       <c r="M98" s="5">
         <v>18.350000381469702</v>
       </c>
@@ -7981,23 +7983,23 @@
       <c r="R98" s="5">
         <v>18.389999389648398</v>
       </c>
-      <c r="S98" s="35"/>
+      <c r="S98" s="34"/>
       <c r="T98" s="17">
         <v>0.27430555555555602</v>
       </c>
       <c r="U98" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V98" s="36"/>
-      <c r="W98" s="36"/>
+      <c r="V98" s="40"/>
+      <c r="W98" s="40"/>
       <c r="X98" s="5">
         <v>18.399999618530298</v>
       </c>
       <c r="Y98" s="5">
         <v>18.360000610351602</v>
       </c>
-      <c r="Z98" s="35"/>
-      <c r="AA98" s="34"/>
+      <c r="Z98" s="34"/>
+      <c r="AA98" s="35"/>
       <c r="AB98" s="17">
         <v>0.27430555555555602</v>
       </c>
@@ -8013,17 +8015,17 @@
       <c r="AF98" s="5">
         <v>18.5</v>
       </c>
-      <c r="AG98" s="35"/>
+      <c r="AG98" s="34"/>
       <c r="AH98" s="17">
         <v>0.27291666666666697</v>
       </c>
       <c r="AI98" s="5">
         <v>18.370000839233398</v>
       </c>
-      <c r="AJ98" s="34"/>
-      <c r="AK98" s="34"/>
-      <c r="AL98" s="34"/>
-      <c r="AM98" s="34"/>
+      <c r="AJ98" s="35"/>
+      <c r="AK98" s="35"/>
+      <c r="AL98" s="35"/>
+      <c r="AM98" s="35"/>
     </row>
     <row r="99" spans="1:39">
       <c r="B99" s="1"/>
@@ -8065,7 +8067,7 @@
       <c r="K100" s="5">
         <v>9.4499998092651403</v>
       </c>
-      <c r="L100" s="35" t="s">
+      <c r="L100" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M100" s="5">
@@ -8086,7 +8088,7 @@
       <c r="R100" s="5">
         <v>9.5200004577636701</v>
       </c>
-      <c r="S100" s="35" t="s">
+      <c r="S100" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T100" s="5">
@@ -8095,10 +8097,10 @@
       <c r="U100" s="5">
         <v>9.4600000381469709</v>
       </c>
-      <c r="V100" s="36" t="s">
+      <c r="V100" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W100" s="36" t="s">
+      <c r="W100" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X100" s="5">
@@ -8107,7 +8109,7 @@
       <c r="Y100" s="5">
         <v>9.5100002288818395</v>
       </c>
-      <c r="Z100" s="35" t="s">
+      <c r="Z100" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA100" s="5">
@@ -8128,7 +8130,7 @@
       <c r="AF100" s="5">
         <v>9.5500001907348597</v>
       </c>
-      <c r="AG100" s="35" t="s">
+      <c r="AG100" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH100" s="5">
@@ -8166,7 +8168,7 @@
       <c r="K101" s="5">
         <v>18.370000839233398</v>
       </c>
-      <c r="L101" s="35"/>
+      <c r="L101" s="34"/>
       <c r="M101" s="5">
         <v>18.340000152587901</v>
       </c>
@@ -8185,22 +8187,22 @@
       <c r="R101" s="5">
         <v>18.360000610351602</v>
       </c>
-      <c r="S101" s="35"/>
+      <c r="S101" s="34"/>
       <c r="T101" s="5">
         <v>18.309999465942401</v>
       </c>
       <c r="U101" s="5">
         <v>15.180000305175801</v>
       </c>
-      <c r="V101" s="36"/>
-      <c r="W101" s="36"/>
+      <c r="V101" s="40"/>
+      <c r="W101" s="40"/>
       <c r="X101" s="5">
         <v>18.319999694824201</v>
       </c>
       <c r="Y101" s="5">
         <v>18.350000381469702</v>
       </c>
-      <c r="Z101" s="35"/>
+      <c r="Z101" s="34"/>
       <c r="AA101" s="5">
         <v>18.350000381469702</v>
       </c>
@@ -8219,7 +8221,7 @@
       <c r="AF101" s="9">
         <v>14.1400003433228</v>
       </c>
-      <c r="AG101" s="35"/>
+      <c r="AG101" s="34"/>
       <c r="AH101" s="5">
         <v>18.329999923706101</v>
       </c>
@@ -8273,7 +8275,7 @@
       <c r="K103" s="17">
         <v>0.41666666666666702</v>
       </c>
-      <c r="L103" s="35" t="s">
+      <c r="L103" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M103" s="17">
@@ -8294,19 +8296,19 @@
       <c r="R103" s="5">
         <v>9.5399999618530291</v>
       </c>
-      <c r="S103" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="T103" s="34" t="s">
+      <c r="S103" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="T103" s="35" t="s">
         <v>1</v>
       </c>
       <c r="U103" s="5">
         <v>9.4399995803833008</v>
       </c>
-      <c r="V103" s="36" t="s">
+      <c r="V103" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W103" s="36" t="s">
+      <c r="W103" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X103" s="5">
@@ -8315,7 +8317,7 @@
       <c r="Y103" s="5">
         <v>9.4799995422363299</v>
       </c>
-      <c r="Z103" s="35" t="s">
+      <c r="Z103" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA103" s="5">
@@ -8336,7 +8338,7 @@
       <c r="AF103" s="7">
         <v>10.1300001144409</v>
       </c>
-      <c r="AG103" s="35" t="s">
+      <c r="AG103" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH103" s="5">
@@ -8348,7 +8350,7 @@
       <c r="AJ103" s="5">
         <v>9.4799995422363299</v>
       </c>
-      <c r="AK103" s="34" t="s">
+      <c r="AK103" s="35" t="s">
         <v>1</v>
       </c>
       <c r="AL103" s="5">
@@ -8371,7 +8373,7 @@
       <c r="K104" s="17">
         <v>0.27222222222222198</v>
       </c>
-      <c r="L104" s="35"/>
+      <c r="L104" s="34"/>
       <c r="M104" s="5">
         <v>18.379999160766602</v>
       </c>
@@ -8390,20 +8392,20 @@
       <c r="R104" s="5">
         <v>18.319999694824201</v>
       </c>
-      <c r="S104" s="35"/>
-      <c r="T104" s="34"/>
+      <c r="S104" s="34"/>
+      <c r="T104" s="35"/>
       <c r="U104" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V104" s="36"/>
-      <c r="W104" s="36"/>
+      <c r="V104" s="40"/>
+      <c r="W104" s="40"/>
       <c r="X104" s="5">
         <v>0</v>
       </c>
       <c r="Y104" s="5">
         <v>18.309999465942401</v>
       </c>
-      <c r="Z104" s="35"/>
+      <c r="Z104" s="34"/>
       <c r="AA104" s="5">
         <v>18.350000381469702</v>
       </c>
@@ -8422,7 +8424,7 @@
       <c r="AF104" s="7">
         <v>18.450000762939499</v>
       </c>
-      <c r="AG104" s="35"/>
+      <c r="AG104" s="34"/>
       <c r="AH104" s="5">
         <v>18.299999237060501</v>
       </c>
@@ -8432,7 +8434,7 @@
       <c r="AJ104" s="5">
         <v>18.399999618530298</v>
       </c>
-      <c r="AK104" s="34"/>
+      <c r="AK104" s="35"/>
       <c r="AL104" s="5">
         <v>18.329999923706101</v>
       </c>
@@ -8491,7 +8493,7 @@
       <c r="R106" s="5">
         <v>9.4600000381469709</v>
       </c>
-      <c r="S106" s="35" t="s">
+      <c r="S106" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T106" s="5">
@@ -8500,10 +8502,10 @@
       <c r="U106" s="5">
         <v>9.4799995422363299</v>
       </c>
-      <c r="V106" s="36" t="s">
+      <c r="V106" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W106" s="36" t="s">
+      <c r="W106" s="40" t="s">
         <v>65</v>
       </c>
       <c r="X106" s="17">
@@ -8512,7 +8514,7 @@
       <c r="Y106" s="5">
         <v>9.5699996948242205</v>
       </c>
-      <c r="Z106" s="35" t="s">
+      <c r="Z106" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA106" s="9">
@@ -8533,7 +8535,7 @@
       <c r="AF106" s="7">
         <v>10.060000419616699</v>
       </c>
-      <c r="AG106" s="35" t="s">
+      <c r="AG106" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH106" s="5">
@@ -8585,22 +8587,22 @@
       <c r="R107" s="5">
         <v>18.370000839233398</v>
       </c>
-      <c r="S107" s="35"/>
+      <c r="S107" s="34"/>
       <c r="T107" s="5">
         <v>18.350000381469702</v>
       </c>
       <c r="U107" s="5">
         <v>15.210000038146999</v>
       </c>
-      <c r="V107" s="36"/>
-      <c r="W107" s="36"/>
+      <c r="V107" s="40"/>
+      <c r="W107" s="40"/>
       <c r="X107" s="5">
         <v>18.360000610351602</v>
       </c>
       <c r="Y107" s="5">
         <v>18.329999923706101</v>
       </c>
-      <c r="Z107" s="35"/>
+      <c r="Z107" s="34"/>
       <c r="AA107" s="5">
         <v>18.389999389648398</v>
       </c>
@@ -8619,7 +8621,7 @@
       <c r="AF107" s="7">
         <v>18.399999618530298</v>
       </c>
-      <c r="AG107" s="35"/>
+      <c r="AG107" s="34"/>
       <c r="AH107" s="5">
         <v>18.379999160766602</v>
       </c>
@@ -8679,7 +8681,7 @@
       <c r="R109" s="18">
         <v>0.422222222222222</v>
       </c>
-      <c r="S109" s="35" t="s">
+      <c r="S109" s="34" t="s">
         <v>0</v>
       </c>
       <c r="T109" s="5">
@@ -8688,19 +8690,19 @@
       <c r="U109" s="9">
         <v>10.1000003814697</v>
       </c>
-      <c r="V109" s="36" t="s">
+      <c r="V109" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="W109" s="36" t="s">
+      <c r="W109" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="X109" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y109" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z109" s="35" t="s">
+      <c r="X109" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y109" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z109" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA109" s="5">
@@ -8742,18 +8744,18 @@
       <c r="R110" s="7">
         <v>18.379999160766602</v>
       </c>
-      <c r="S110" s="35"/>
+      <c r="S110" s="34"/>
       <c r="T110" s="5">
         <v>18.340000152587901</v>
       </c>
       <c r="U110" s="9">
         <v>13.4899997711182</v>
       </c>
-      <c r="V110" s="36"/>
-      <c r="W110" s="36"/>
-      <c r="X110" s="34"/>
-      <c r="Y110" s="34"/>
-      <c r="Z110" s="35"/>
+      <c r="V110" s="40"/>
+      <c r="W110" s="40"/>
+      <c r="X110" s="35"/>
+      <c r="Y110" s="35"/>
+      <c r="Z110" s="34"/>
       <c r="AA110" s="5">
         <v>18.319999694824201</v>
       </c>
@@ -8823,7 +8825,7 @@
       <c r="Y112" s="17">
         <v>0.38888888888888901</v>
       </c>
-      <c r="Z112" s="35" t="s">
+      <c r="Z112" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AA112" s="17">
@@ -8844,7 +8846,7 @@
       <c r="AF112" s="5">
         <v>9.3299999237060494</v>
       </c>
-      <c r="AG112" s="35" t="s">
+      <c r="AG112" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH112" s="5">
@@ -8894,7 +8896,7 @@
       <c r="Y113" s="17">
         <v>0.27361111111111103</v>
       </c>
-      <c r="Z113" s="35"/>
+      <c r="Z113" s="34"/>
       <c r="AA113" s="5">
         <v>18.350000381469702</v>
       </c>
@@ -8913,7 +8915,7 @@
       <c r="AF113" s="5">
         <v>18.360000610351602</v>
       </c>
-      <c r="AG113" s="35"/>
+      <c r="AG113" s="34"/>
       <c r="AH113" s="5">
         <v>18.329999923706101</v>
       </c>
@@ -8993,7 +8995,7 @@
       <c r="AF115" s="5">
         <v>9.2899999618530291</v>
       </c>
-      <c r="AG115" s="35" t="s">
+      <c r="AG115" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AH115" s="17">
@@ -9054,7 +9056,7 @@
       <c r="AF116" s="5">
         <v>18.340000152587901</v>
       </c>
-      <c r="AG116" s="35"/>
+      <c r="AG116" s="34"/>
       <c r="AH116" s="17">
         <v>0.27152777777777798</v>
       </c>
@@ -9097,31 +9099,31 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-      <c r="I118" s="39"/>
-      <c r="J118" s="39"/>
-      <c r="K118" s="39"/>
-      <c r="L118" s="39"/>
-      <c r="M118" s="39"/>
-      <c r="N118" s="39"/>
-      <c r="O118" s="39"/>
-      <c r="P118" s="39"/>
-      <c r="Q118" s="39"/>
-      <c r="R118" s="39"/>
-      <c r="S118" s="39"/>
-      <c r="T118" s="39"/>
-      <c r="U118" s="41"/>
-      <c r="V118" s="41"/>
+      <c r="I118" s="38"/>
+      <c r="J118" s="38"/>
+      <c r="K118" s="38"/>
+      <c r="L118" s="38"/>
+      <c r="M118" s="38"/>
+      <c r="N118" s="38"/>
+      <c r="O118" s="38"/>
+      <c r="P118" s="38"/>
+      <c r="Q118" s="38"/>
+      <c r="R118" s="38"/>
+      <c r="S118" s="38"/>
+      <c r="T118" s="38"/>
+      <c r="U118" s="39"/>
+      <c r="V118" s="39"/>
       <c r="W118" s="8"/>
-      <c r="X118" s="34"/>
+      <c r="X118" s="35"/>
       <c r="Y118" s="8"/>
-      <c r="Z118" s="40"/>
+      <c r="Z118" s="36"/>
       <c r="AA118" s="8"/>
-      <c r="AB118" s="34"/>
+      <c r="AB118" s="35"/>
       <c r="AC118" s="8"/>
       <c r="AD118" s="8"/>
       <c r="AE118" s="8"/>
       <c r="AF118" s="8"/>
-      <c r="AG118" s="40"/>
+      <c r="AG118" s="36"/>
       <c r="AH118" s="12"/>
       <c r="AI118" s="11"/>
       <c r="AJ118" s="8"/>
@@ -9134,31 +9136,31 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
-      <c r="I119" s="39"/>
-      <c r="J119" s="39"/>
-      <c r="K119" s="39"/>
-      <c r="L119" s="39"/>
-      <c r="M119" s="39"/>
-      <c r="N119" s="39"/>
-      <c r="O119" s="39"/>
-      <c r="P119" s="39"/>
-      <c r="Q119" s="39"/>
-      <c r="R119" s="39"/>
-      <c r="S119" s="39"/>
-      <c r="T119" s="39"/>
-      <c r="U119" s="41"/>
-      <c r="V119" s="41"/>
+      <c r="I119" s="38"/>
+      <c r="J119" s="38"/>
+      <c r="K119" s="38"/>
+      <c r="L119" s="38"/>
+      <c r="M119" s="38"/>
+      <c r="N119" s="38"/>
+      <c r="O119" s="38"/>
+      <c r="P119" s="38"/>
+      <c r="Q119" s="38"/>
+      <c r="R119" s="38"/>
+      <c r="S119" s="38"/>
+      <c r="T119" s="38"/>
+      <c r="U119" s="39"/>
+      <c r="V119" s="39"/>
       <c r="W119" s="8"/>
-      <c r="X119" s="34"/>
+      <c r="X119" s="35"/>
       <c r="Y119" s="8"/>
-      <c r="Z119" s="40"/>
+      <c r="Z119" s="36"/>
       <c r="AA119" s="8"/>
-      <c r="AB119" s="34"/>
+      <c r="AB119" s="35"/>
       <c r="AC119" s="8"/>
       <c r="AD119" s="8"/>
       <c r="AE119" s="8"/>
       <c r="AF119" s="8"/>
-      <c r="AG119" s="40"/>
+      <c r="AG119" s="36"/>
       <c r="AH119" s="12"/>
       <c r="AI119" s="11"/>
       <c r="AJ119" s="8"/>
@@ -9176,93 +9178,203 @@
     </row>
   </sheetData>
   <mergeCells count="324">
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="L94:L95"/>
-    <mergeCell ref="L97:L98"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="Z112:Z113"/>
-    <mergeCell ref="Z118:Z119"/>
-    <mergeCell ref="Z85:Z86"/>
-    <mergeCell ref="Z88:Z89"/>
-    <mergeCell ref="Z91:Z92"/>
-    <mergeCell ref="Z94:Z95"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AB49:AB50"/>
-    <mergeCell ref="AB88:AB89"/>
-    <mergeCell ref="AC88:AC89"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="Z70:Z71"/>
-    <mergeCell ref="Z73:Z74"/>
-    <mergeCell ref="Z76:Z77"/>
-    <mergeCell ref="Z79:Z80"/>
-    <mergeCell ref="Z82:Z83"/>
-    <mergeCell ref="Z43:Z44"/>
-    <mergeCell ref="Z46:Z47"/>
-    <mergeCell ref="Z49:Z50"/>
-    <mergeCell ref="Z52:Z53"/>
-    <mergeCell ref="Z55:Z56"/>
-    <mergeCell ref="Z67:Z68"/>
-    <mergeCell ref="AG82:AG83"/>
-    <mergeCell ref="AG85:AG86"/>
-    <mergeCell ref="AG88:AG89"/>
-    <mergeCell ref="AG91:AG92"/>
-    <mergeCell ref="AG94:AG95"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="AG31:AG32"/>
-    <mergeCell ref="AG34:AG35"/>
-    <mergeCell ref="AG37:AG38"/>
-    <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AG46:AG47"/>
-    <mergeCell ref="AG49:AG50"/>
-    <mergeCell ref="AG55:AG56"/>
-    <mergeCell ref="AG58:AG59"/>
-    <mergeCell ref="AG61:AG62"/>
-    <mergeCell ref="AG64:AG65"/>
+    <mergeCell ref="AK103:AK104"/>
+    <mergeCell ref="S106:S107"/>
+    <mergeCell ref="V106:V107"/>
+    <mergeCell ref="W106:W107"/>
+    <mergeCell ref="S109:S110"/>
+    <mergeCell ref="V109:V110"/>
+    <mergeCell ref="W109:W110"/>
+    <mergeCell ref="X109:X110"/>
+    <mergeCell ref="Y109:Y110"/>
+    <mergeCell ref="Z109:Z110"/>
+    <mergeCell ref="S97:S98"/>
+    <mergeCell ref="V97:V98"/>
+    <mergeCell ref="W97:W98"/>
+    <mergeCell ref="AA97:AA98"/>
+    <mergeCell ref="AJ97:AJ98"/>
+    <mergeCell ref="AK97:AK98"/>
+    <mergeCell ref="AL97:AL98"/>
+    <mergeCell ref="AM97:AM98"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="S100:S101"/>
+    <mergeCell ref="V100:V101"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="S91:S92"/>
+    <mergeCell ref="V91:V92"/>
+    <mergeCell ref="W91:W92"/>
+    <mergeCell ref="AH91:AH92"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="S94:S95"/>
+    <mergeCell ref="U94:U95"/>
+    <mergeCell ref="V94:V95"/>
+    <mergeCell ref="W94:W95"/>
+    <mergeCell ref="S82:S83"/>
+    <mergeCell ref="V82:V83"/>
+    <mergeCell ref="W82:W83"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="S85:S86"/>
+    <mergeCell ref="U85:U86"/>
+    <mergeCell ref="V85:V86"/>
+    <mergeCell ref="W85:W86"/>
+    <mergeCell ref="S88:S89"/>
+    <mergeCell ref="V88:V89"/>
+    <mergeCell ref="W88:W89"/>
+    <mergeCell ref="S76:S77"/>
+    <mergeCell ref="V76:V77"/>
+    <mergeCell ref="W76:W77"/>
+    <mergeCell ref="AI76:AI77"/>
+    <mergeCell ref="AJ76:AJ77"/>
+    <mergeCell ref="AK76:AK77"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="T79:T80"/>
+    <mergeCell ref="U79:U80"/>
+    <mergeCell ref="V79:V80"/>
+    <mergeCell ref="W79:W80"/>
+    <mergeCell ref="X79:X80"/>
+    <mergeCell ref="AG76:AG77"/>
+    <mergeCell ref="AG79:AG80"/>
+    <mergeCell ref="AB76:AB77"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="V70:V71"/>
+    <mergeCell ref="W70:W71"/>
+    <mergeCell ref="S73:S74"/>
+    <mergeCell ref="V73:V74"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="AE73:AE74"/>
+    <mergeCell ref="AG73:AG74"/>
+    <mergeCell ref="AG70:AG71"/>
+    <mergeCell ref="S64:S65"/>
+    <mergeCell ref="V64:V65"/>
+    <mergeCell ref="W64:W65"/>
+    <mergeCell ref="AJ64:AJ65"/>
+    <mergeCell ref="AK64:AK65"/>
+    <mergeCell ref="AL64:AL65"/>
+    <mergeCell ref="AM64:AM65"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="S67:S68"/>
+    <mergeCell ref="U67:U68"/>
+    <mergeCell ref="V67:V68"/>
+    <mergeCell ref="W67:W68"/>
+    <mergeCell ref="X67:X68"/>
+    <mergeCell ref="Y67:Y68"/>
+    <mergeCell ref="AF67:AF68"/>
+    <mergeCell ref="Z64:Z65"/>
+    <mergeCell ref="AG67:AG68"/>
+    <mergeCell ref="AM52:AM53"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="S58:S59"/>
+    <mergeCell ref="U58:U59"/>
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="W58:W59"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="W61:W62"/>
+    <mergeCell ref="AK61:AK62"/>
+    <mergeCell ref="AL61:AL62"/>
+    <mergeCell ref="Z58:Z59"/>
+    <mergeCell ref="Z61:Z62"/>
+    <mergeCell ref="V61:V62"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="AG52:AG53"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AJ52:AJ53"/>
+    <mergeCell ref="AK52:AK53"/>
+    <mergeCell ref="AL52:AL53"/>
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="W46:W47"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="AJ40:AJ41"/>
+    <mergeCell ref="AM40:AM41"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="AD43:AD44"/>
+    <mergeCell ref="Z40:Z41"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="W37:W38"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="Z37:Z38"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="AM10:AM11"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
     <mergeCell ref="I118:L119"/>
     <mergeCell ref="M118:P119"/>
     <mergeCell ref="Q118:T119"/>
@@ -9287,27 +9399,63 @@
     <mergeCell ref="W103:W104"/>
     <mergeCell ref="Z103:Z104"/>
     <mergeCell ref="Z106:Z107"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="AM10:AM11"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="AG82:AG83"/>
+    <mergeCell ref="AG85:AG86"/>
+    <mergeCell ref="AG88:AG89"/>
+    <mergeCell ref="AG91:AG92"/>
+    <mergeCell ref="AG94:AG95"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="AG31:AG32"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="AG37:AG38"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AG46:AG47"/>
+    <mergeCell ref="AG49:AG50"/>
+    <mergeCell ref="AG55:AG56"/>
+    <mergeCell ref="AG58:AG59"/>
+    <mergeCell ref="AG61:AG62"/>
+    <mergeCell ref="AG64:AG65"/>
+    <mergeCell ref="AB49:AB50"/>
+    <mergeCell ref="AB88:AB89"/>
+    <mergeCell ref="AC88:AC89"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="Z70:Z71"/>
+    <mergeCell ref="Z73:Z74"/>
+    <mergeCell ref="Z76:Z77"/>
+    <mergeCell ref="Z79:Z80"/>
+    <mergeCell ref="Z82:Z83"/>
+    <mergeCell ref="Z43:Z44"/>
+    <mergeCell ref="Z46:Z47"/>
+    <mergeCell ref="Z49:Z50"/>
+    <mergeCell ref="Z52:Z53"/>
+    <mergeCell ref="Z55:Z56"/>
+    <mergeCell ref="Z67:Z68"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="Z112:Z113"/>
+    <mergeCell ref="Z118:Z119"/>
+    <mergeCell ref="Z85:Z86"/>
+    <mergeCell ref="Z88:Z89"/>
+    <mergeCell ref="Z91:Z92"/>
+    <mergeCell ref="Z94:Z95"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="S61:S62"/>
     <mergeCell ref="S16:S17"/>
     <mergeCell ref="T16:T17"/>
     <mergeCell ref="U16:U17"/>
@@ -9316,190 +9464,44 @@
     <mergeCell ref="S19:S20"/>
     <mergeCell ref="V19:V20"/>
     <mergeCell ref="W19:W20"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="V22:V23"/>
     <mergeCell ref="W22:W23"/>
-    <mergeCell ref="Q22:Q23"/>
     <mergeCell ref="X22:X23"/>
     <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AG22:AG23"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="V37:V38"/>
-    <mergeCell ref="W37:W38"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="Z37:Z38"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AD31:AD32"/>
     <mergeCell ref="S40:S41"/>
     <mergeCell ref="V40:V41"/>
     <mergeCell ref="W40:W41"/>
-    <mergeCell ref="AJ40:AJ41"/>
-    <mergeCell ref="AM40:AM41"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="AD43:AD44"/>
-    <mergeCell ref="Z40:Z41"/>
-    <mergeCell ref="V43:V44"/>
     <mergeCell ref="S46:S47"/>
-    <mergeCell ref="V46:V47"/>
-    <mergeCell ref="W46:W47"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="AG52:AG53"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AJ52:AJ53"/>
-    <mergeCell ref="AK52:AK53"/>
-    <mergeCell ref="AL52:AL53"/>
-    <mergeCell ref="AM52:AM53"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="S58:S59"/>
-    <mergeCell ref="U58:U59"/>
-    <mergeCell ref="V58:V59"/>
-    <mergeCell ref="W58:W59"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="W61:W62"/>
-    <mergeCell ref="AK61:AK62"/>
-    <mergeCell ref="AL61:AL62"/>
-    <mergeCell ref="Z58:Z59"/>
-    <mergeCell ref="Z61:Z62"/>
-    <mergeCell ref="V61:V62"/>
-    <mergeCell ref="S64:S65"/>
-    <mergeCell ref="V64:V65"/>
-    <mergeCell ref="W64:W65"/>
-    <mergeCell ref="AJ64:AJ65"/>
-    <mergeCell ref="AK64:AK65"/>
-    <mergeCell ref="AL64:AL65"/>
-    <mergeCell ref="AM64:AM65"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="S67:S68"/>
-    <mergeCell ref="U67:U68"/>
-    <mergeCell ref="V67:V68"/>
-    <mergeCell ref="W67:W68"/>
-    <mergeCell ref="X67:X68"/>
-    <mergeCell ref="Y67:Y68"/>
-    <mergeCell ref="AF67:AF68"/>
-    <mergeCell ref="Z64:Z65"/>
-    <mergeCell ref="AG67:AG68"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="S70:S71"/>
-    <mergeCell ref="V70:V71"/>
-    <mergeCell ref="W70:W71"/>
-    <mergeCell ref="S73:S74"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="AE73:AE74"/>
-    <mergeCell ref="AG73:AG74"/>
-    <mergeCell ref="AG70:AG71"/>
-    <mergeCell ref="S76:S77"/>
-    <mergeCell ref="V76:V77"/>
-    <mergeCell ref="W76:W77"/>
-    <mergeCell ref="AI76:AI77"/>
-    <mergeCell ref="AJ76:AJ77"/>
-    <mergeCell ref="AK76:AK77"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="T79:T80"/>
-    <mergeCell ref="U79:U80"/>
-    <mergeCell ref="V79:V80"/>
-    <mergeCell ref="W79:W80"/>
-    <mergeCell ref="X79:X80"/>
-    <mergeCell ref="AG76:AG77"/>
-    <mergeCell ref="AG79:AG80"/>
-    <mergeCell ref="AB76:AB77"/>
-    <mergeCell ref="S82:S83"/>
-    <mergeCell ref="V82:V83"/>
-    <mergeCell ref="W82:W83"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="S85:S86"/>
-    <mergeCell ref="U85:U86"/>
-    <mergeCell ref="V85:V86"/>
-    <mergeCell ref="W85:W86"/>
-    <mergeCell ref="S88:S89"/>
-    <mergeCell ref="V88:V89"/>
-    <mergeCell ref="W88:W89"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="S91:S92"/>
-    <mergeCell ref="V91:V92"/>
-    <mergeCell ref="W91:W92"/>
-    <mergeCell ref="AH91:AH92"/>
-    <mergeCell ref="K94:K95"/>
-    <mergeCell ref="S94:S95"/>
-    <mergeCell ref="U94:U95"/>
-    <mergeCell ref="V94:V95"/>
-    <mergeCell ref="W94:W95"/>
-    <mergeCell ref="S97:S98"/>
-    <mergeCell ref="V97:V98"/>
-    <mergeCell ref="W97:W98"/>
-    <mergeCell ref="AA97:AA98"/>
-    <mergeCell ref="AJ97:AJ98"/>
-    <mergeCell ref="AK97:AK98"/>
-    <mergeCell ref="AL97:AL98"/>
-    <mergeCell ref="AM97:AM98"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="S100:S101"/>
-    <mergeCell ref="V100:V101"/>
-    <mergeCell ref="AK103:AK104"/>
-    <mergeCell ref="S106:S107"/>
-    <mergeCell ref="V106:V107"/>
-    <mergeCell ref="W106:W107"/>
-    <mergeCell ref="S109:S110"/>
-    <mergeCell ref="V109:V110"/>
-    <mergeCell ref="W109:W110"/>
-    <mergeCell ref="X109:X110"/>
-    <mergeCell ref="Y109:Y110"/>
-    <mergeCell ref="Z109:Z110"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L28:L29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/public/sample/march 2025.xlsx
+++ b/public/sample/march 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Office\Projects\Automated Salary Maker\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3291B0-968E-46AD-BB99-9D1739978D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DCAF18-F433-40DC-91F6-294DCDB38A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,7 +277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,8 +323,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1C1D1C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,13 +397,34 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD5D5D5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD5D5D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD5D5D5"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -400,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -493,17 +526,26 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1234,21 +1276,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" ht="15.75" thickBot="1">
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1">
+    <row r="4" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="42">
+        <v>50000</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1303,10 +1347,10 @@
       <c r="U4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="V4" s="40" t="s">
+      <c r="V4" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="40" t="s">
+      <c r="W4" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X4" s="37" t="s">
@@ -1358,10 +1402,10 @@
         <v>9.4399995803833008</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" customHeight="1">
+    <row r="5" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="2"/>
       <c r="E5" s="19"/>
       <c r="F5" s="1"/>
@@ -1400,8 +1444,8 @@
       <c r="S5" s="34"/>
       <c r="T5" s="37"/>
       <c r="U5" s="37"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
       <c r="X5" s="37"/>
       <c r="Y5" s="5">
         <v>18.319999694824201</v>
@@ -1445,24 +1489,26 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" ht="15.75" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="2"/>
       <c r="E6" s="19"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:39" ht="15" customHeight="1">
+    <row r="7" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="42">
+        <v>50000</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1517,10 +1563,10 @@
       <c r="U7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="V7" s="40" t="s">
+      <c r="V7" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W7" s="40" t="s">
+      <c r="W7" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X7" s="35" t="s">
@@ -1572,10 +1618,10 @@
         <v>10.079999923706101</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="15" customHeight="1">
+    <row r="8" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="2"/>
       <c r="E8" s="19"/>
       <c r="F8" s="1"/>
@@ -1614,8 +1660,8 @@
       <c r="S8" s="34"/>
       <c r="T8" s="37"/>
       <c r="U8" s="37"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
       <c r="X8" s="35"/>
       <c r="Y8" s="35"/>
       <c r="Z8" s="34"/>
@@ -1657,24 +1703,26 @@
         <v>18.530000686645501</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" ht="15.75" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="2"/>
       <c r="E9" s="19"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1">
+    <row r="10" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="2">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="42">
+        <v>15000</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1727,10 +1775,10 @@
       <c r="U10" s="5">
         <v>9.1800003051757795</v>
       </c>
-      <c r="V10" s="40" t="s">
+      <c r="V10" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W10" s="40" t="s">
+      <c r="W10" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X10" s="5">
@@ -1778,14 +1826,14 @@
       <c r="AL10" s="5">
         <v>9.0699996948242205</v>
       </c>
-      <c r="AM10" s="40" t="s">
+      <c r="AM10" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1">
+    <row r="11" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="2"/>
       <c r="E11" s="19"/>
       <c r="F11" s="1"/>
@@ -1828,8 +1876,8 @@
       <c r="U11" s="5">
         <v>16.469999313354499</v>
       </c>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
       <c r="X11" s="5">
         <v>19.370000839233398</v>
       </c>
@@ -1873,26 +1921,28 @@
       <c r="AL11" s="5">
         <v>20.540000915527301</v>
       </c>
-      <c r="AM11" s="40"/>
-    </row>
-    <row r="12" spans="1:39">
+      <c r="AM11" s="38"/>
+    </row>
+    <row r="12" spans="1:39" ht="15.75" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="2"/>
       <c r="E12" s="19"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1">
+    <row r="13" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="2">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="42">
+        <v>33333</v>
+      </c>
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1947,10 +1997,10 @@
       <c r="U13" s="5">
         <v>9.4499998092651403</v>
       </c>
-      <c r="V13" s="40" t="s">
+      <c r="V13" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W13" s="40" t="s">
+      <c r="W13" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X13" s="37" t="s">
@@ -2002,10 +2052,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1">
+    <row r="14" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="2"/>
       <c r="E14" s="19"/>
       <c r="F14" s="1"/>
@@ -2048,8 +2098,8 @@
       <c r="U14" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
       <c r="X14" s="37"/>
       <c r="Y14" s="5">
         <v>18.350000381469702</v>
@@ -2091,24 +2141,26 @@
       </c>
       <c r="AM14" s="35"/>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" ht="15.75" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="2"/>
       <c r="E15" s="19"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:39" ht="15" customHeight="1">
+    <row r="16" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="2">
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="42">
+        <v>33333</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>25</v>
       </c>
@@ -2163,10 +2215,10 @@
       <c r="U16" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="V16" s="40" t="s">
+      <c r="V16" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W16" s="40" t="s">
+      <c r="W16" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X16" s="17">
@@ -2218,10 +2270,10 @@
         <v>9.5399999618530291</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1">
+    <row r="17" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="2"/>
       <c r="E17" s="19"/>
       <c r="F17" s="1"/>
@@ -2260,8 +2312,8 @@
       <c r="S17" s="34"/>
       <c r="T17" s="37"/>
       <c r="U17" s="37"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
       <c r="X17" s="5" t="s">
         <v>67</v>
       </c>
@@ -2307,24 +2359,26 @@
         <v>16.309999465942401</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" ht="15.75" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="2"/>
       <c r="E18" s="19"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1">
+    <row r="19" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="1">
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="42">
+        <v>50000</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2379,10 +2433,10 @@
       <c r="U19" s="5">
         <v>9.5299997329711896</v>
       </c>
-      <c r="V19" s="40" t="s">
+      <c r="V19" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="40" t="s">
+      <c r="W19" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X19" s="5">
@@ -2434,10 +2488,10 @@
         <v>9.5500001907348597</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1">
+    <row r="20" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="2"/>
       <c r="E20" s="19"/>
       <c r="F20" s="1"/>
@@ -2480,8 +2534,8 @@
       <c r="U20" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
       <c r="X20" s="5">
         <v>18.370000839233398</v>
       </c>
@@ -2527,24 +2581,26 @@
         <v>18.420000076293899</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" ht="15.75" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="2"/>
       <c r="E21" s="24"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1">
+    <row r="22" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="2">
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="42">
+        <v>55000</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
@@ -2572,43 +2628,43 @@
       <c r="L22" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="41" t="s">
+      <c r="M22" s="39" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="O22" s="41" t="s">
+      <c r="O22" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="41" t="s">
+      <c r="P22" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="41" t="s">
+      <c r="Q22" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="41" t="s">
+      <c r="R22" s="39" t="s">
         <v>3</v>
       </c>
       <c r="S22" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="T22" s="41" t="s">
+      <c r="T22" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="41" t="s">
+      <c r="U22" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="40" t="s">
+      <c r="V22" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W22" s="40" t="s">
+      <c r="W22" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X22" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="Y22" s="41" t="s">
+      <c r="Y22" s="39" t="s">
         <v>3</v>
       </c>
       <c r="Z22" s="34" t="s">
@@ -2654,10 +2710,10 @@
         <v>9.4399995803833008</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="15" customHeight="1">
+    <row r="23" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="2"/>
       <c r="E23" s="19"/>
       <c r="F23" s="1"/>
@@ -2675,19 +2731,19 @@
         <v>18.180000305175799</v>
       </c>
       <c r="L23" s="34"/>
-      <c r="M23" s="41"/>
+      <c r="M23" s="39"/>
       <c r="N23" s="37"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
       <c r="S23" s="34"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
       <c r="X23" s="35"/>
-      <c r="Y23" s="41"/>
+      <c r="Y23" s="39"/>
       <c r="Z23" s="34"/>
       <c r="AA23" s="35"/>
       <c r="AB23" s="35"/>
@@ -2721,24 +2777,26 @@
         <v>18.190000534057599</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" ht="15.75" thickBot="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="2"/>
       <c r="E24" s="19"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1">
+    <row r="25" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="2">
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="42">
+        <v>32000</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>31</v>
       </c>
@@ -2793,10 +2851,10 @@
       <c r="U25" s="5">
         <v>9.5600004196166992</v>
       </c>
-      <c r="V25" s="40" t="s">
+      <c r="V25" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W25" s="40" t="s">
+      <c r="W25" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X25" s="5">
@@ -2848,10 +2906,10 @@
         <v>9.5399999618530291</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="15" customHeight="1">
+    <row r="26" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="2"/>
       <c r="E26" s="19"/>
       <c r="F26" s="1"/>
@@ -2894,8 +2952,8 @@
       <c r="U26" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
       <c r="X26" s="5">
         <v>18.350000381469702</v>
       </c>
@@ -2941,24 +2999,24 @@
         <v>18.430000305175799</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" ht="15.75" thickBot="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="2"/>
       <c r="E27" s="19"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1">
+    <row r="28" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="2">
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="42">
         <v>40000</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -3015,10 +3073,10 @@
       <c r="U28" s="5">
         <v>9.5900001525878906</v>
       </c>
-      <c r="V28" s="40" t="s">
+      <c r="V28" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W28" s="40" t="s">
+      <c r="W28" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X28" s="5">
@@ -3070,10 +3128,10 @@
         <v>9.5399999618530291</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="15" customHeight="1">
+    <row r="29" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="2"/>
       <c r="E29" s="19"/>
       <c r="F29" s="1"/>
@@ -3116,8 +3174,8 @@
       <c r="U29" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
       <c r="X29" s="5">
         <v>18.360000610351602</v>
       </c>
@@ -3163,24 +3221,24 @@
         <v>18.350000381469702</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" ht="15.75" thickBot="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="2"/>
       <c r="E30" s="19"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:39" ht="15" customHeight="1">
+    <row r="31" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="2">
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="43">
         <v>28500</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3292,10 +3350,10 @@
         <v>9.4300003051757795</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1">
+    <row r="32" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="1"/>
       <c r="E32" s="24"/>
       <c r="F32" s="1"/>
@@ -3365,24 +3423,26 @@
         <v>18.350000381469702</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" ht="15.75" thickBot="1">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="1"/>
       <c r="E33" s="24"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:39" ht="15" customHeight="1">
+    <row r="34" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="1">
         <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="43">
+        <v>25000</v>
+      </c>
       <c r="D34" s="1" t="s">
         <v>31</v>
       </c>
@@ -3437,10 +3497,10 @@
       <c r="U34" s="9">
         <v>10.050000190734901</v>
       </c>
-      <c r="V34" s="40" t="s">
+      <c r="V34" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W34" s="40" t="s">
+      <c r="W34" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X34" s="9">
@@ -3492,10 +3552,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="15" customHeight="1">
+    <row r="35" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="1"/>
       <c r="E35" s="24"/>
       <c r="F35" s="1"/>
@@ -3538,8 +3598,8 @@
       <c r="U35" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
       <c r="X35" s="5">
         <v>18.329999923706101</v>
       </c>
@@ -3585,24 +3645,26 @@
         <v>18.340000152587901</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" ht="15.75" thickBot="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="1"/>
       <c r="E36" s="24"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:39" ht="15" customHeight="1">
+    <row r="37" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="1">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="43">
+        <v>33000</v>
+      </c>
       <c r="D37" s="1" t="s">
         <v>37</v>
       </c>
@@ -3657,10 +3719,10 @@
       <c r="U37" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="V37" s="40" t="s">
+      <c r="V37" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W37" s="40" t="s">
+      <c r="W37" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X37" s="5">
@@ -3712,10 +3774,10 @@
         <v>9.4700002670288104</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="15" customHeight="1">
+    <row r="38" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="1"/>
       <c r="E38" s="24"/>
       <c r="F38" s="1"/>
@@ -3754,8 +3816,8 @@
         <v>18.360000610351602</v>
       </c>
       <c r="U38" s="37"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
       <c r="X38" s="5">
         <v>18.370000839233398</v>
       </c>
@@ -3801,24 +3863,26 @@
         <v>18.350000381469702</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" ht="15.75" thickBot="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="1"/>
       <c r="E39" s="24"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:39" ht="15" customHeight="1">
+    <row r="40" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A40" s="1">
         <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="43">
+        <v>23000</v>
+      </c>
       <c r="D40" s="1" t="s">
         <v>39</v>
       </c>
@@ -3873,10 +3937,10 @@
       <c r="U40" s="5">
         <v>10.1000003814697</v>
       </c>
-      <c r="V40" s="40" t="s">
+      <c r="V40" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W40" s="40" t="s">
+      <c r="W40" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X40" s="5">
@@ -3924,14 +3988,14 @@
       <c r="AL40" s="5">
         <v>10.1099996566772</v>
       </c>
-      <c r="AM40" s="40" t="s">
+      <c r="AM40" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="15" customHeight="1">
+    <row r="41" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="1"/>
       <c r="E41" s="24"/>
       <c r="F41" s="1"/>
@@ -3974,8 +4038,8 @@
       <c r="U41" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
       <c r="X41" s="5">
         <v>18.430000305175799</v>
       </c>
@@ -4015,26 +4079,28 @@
       <c r="AL41" s="5">
         <v>18.379999160766602</v>
       </c>
-      <c r="AM41" s="40"/>
-    </row>
-    <row r="42" spans="1:39">
+      <c r="AM41" s="38"/>
+    </row>
+    <row r="42" spans="1:39" ht="15.75" thickBot="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="1"/>
       <c r="E42" s="24"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:39" ht="15" customHeight="1">
+    <row r="43" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="1">
         <v>14</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="43">
+        <v>26000</v>
+      </c>
       <c r="D43" s="1" t="s">
         <v>31</v>
       </c>
@@ -4089,10 +4155,10 @@
       <c r="U43" s="5">
         <v>9.5500001907348597</v>
       </c>
-      <c r="V43" s="40" t="s">
+      <c r="V43" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W43" s="40" t="s">
+      <c r="W43" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X43" s="17">
@@ -4144,10 +4210,10 @@
         <v>10.1300001144409</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="15" customHeight="1">
+    <row r="44" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="1"/>
       <c r="E44" s="24"/>
       <c r="F44" s="1"/>
@@ -4190,8 +4256,8 @@
       <c r="U44" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
       <c r="X44" s="5">
         <v>18.459999084472699</v>
       </c>
@@ -4229,24 +4295,26 @@
         <v>18.350000381469702</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" ht="15.75" thickBot="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="1"/>
       <c r="E45" s="24"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:39" ht="15" customHeight="1">
+    <row r="46" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="1">
         <v>15</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="43">
+        <v>110000</v>
+      </c>
       <c r="D46" s="1" t="s">
         <v>20</v>
       </c>
@@ -4301,10 +4369,10 @@
       <c r="U46" s="5">
         <v>9.3599996566772496</v>
       </c>
-      <c r="V46" s="40" t="s">
+      <c r="V46" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W46" s="40" t="s">
+      <c r="W46" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X46" s="5">
@@ -4356,10 +4424,10 @@
         <v>9.4399995803833008</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="15" customHeight="1">
+    <row r="47" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="1"/>
       <c r="E47" s="24"/>
       <c r="F47" s="1"/>
@@ -4402,8 +4470,8 @@
       <c r="U47" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V47" s="40"/>
-      <c r="W47" s="40"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
       <c r="X47" s="5">
         <v>18.389999389648398</v>
       </c>
@@ -4449,24 +4517,26 @@
         <v>18.350000381469702</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" ht="15.75" thickBot="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="1"/>
       <c r="E48" s="24"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:39" ht="15" customHeight="1">
+    <row r="49" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A49" s="1">
         <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="43">
+        <v>25000</v>
+      </c>
       <c r="D49" s="1" t="s">
         <v>31</v>
       </c>
@@ -4521,10 +4591,10 @@
       <c r="U49" s="5">
         <v>9.4799995422363299</v>
       </c>
-      <c r="V49" s="40" t="s">
+      <c r="V49" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W49" s="40" t="s">
+      <c r="W49" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X49" s="5">
@@ -4576,10 +4646,10 @@
         <v>9.4399995803833008</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="15" customHeight="1">
+    <row r="50" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="44"/>
       <c r="E50" s="28"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -4607,8 +4677,8 @@
       <c r="U50" s="5">
         <v>15.180000305175801</v>
       </c>
-      <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
       <c r="X50" s="5">
         <v>18.389999389648398</v>
       </c>
@@ -4652,22 +4722,24 @@
         <v>18.329999923706101</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" ht="15.75" thickBot="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="C51" s="44"/>
       <c r="E51" s="28"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:39" ht="15" customHeight="1">
+    <row r="52" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A52" s="1">
         <v>17</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="43">
+        <v>45000</v>
+      </c>
       <c r="D52" s="1" t="s">
         <v>20</v>
       </c>
@@ -4722,10 +4794,10 @@
       <c r="U52" s="5">
         <v>9.4200000762939506</v>
       </c>
-      <c r="V52" s="40" t="s">
+      <c r="V52" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W52" s="40" t="s">
+      <c r="W52" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X52" s="5">
@@ -4777,10 +4849,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="15" customHeight="1">
+    <row r="53" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="C53" s="44"/>
       <c r="E53" s="28"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -4820,8 +4892,8 @@
       <c r="U53" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40"/>
+      <c r="V53" s="38"/>
+      <c r="W53" s="38"/>
       <c r="X53" s="5">
         <v>18.309999465942401</v>
       </c>
@@ -4857,22 +4929,24 @@
       <c r="AL53" s="35"/>
       <c r="AM53" s="35"/>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" ht="15.75" thickBot="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="C54" s="44"/>
       <c r="E54" s="28"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:39" ht="15" customHeight="1">
+    <row r="55" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A55">
         <v>18</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="C55" s="43">
+        <v>25000</v>
+      </c>
       <c r="D55" s="1" t="s">
         <v>31</v>
       </c>
@@ -4927,10 +5001,10 @@
       <c r="U55" s="5">
         <v>9.3599996566772496</v>
       </c>
-      <c r="V55" s="40" t="s">
+      <c r="V55" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W55" s="40" t="s">
+      <c r="W55" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X55" s="17">
@@ -4982,9 +5056,9 @@
         <v>9.4300003051757795</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="15" customHeight="1">
+    <row r="56" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="C56" s="44"/>
       <c r="E56" s="28"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -5026,8 +5100,8 @@
       <c r="U56" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V56" s="40"/>
-      <c r="W56" s="40"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
       <c r="X56" s="17">
         <v>0.27638888888888902</v>
       </c>
@@ -5073,21 +5147,23 @@
         <v>18.329999923706101</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" ht="15.75" thickBot="1">
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="C57" s="44"/>
       <c r="E57" s="28"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:39" ht="15" customHeight="1">
+    <row r="58" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A58">
         <v>19</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="1"/>
+      <c r="C58" s="43">
+        <v>25000</v>
+      </c>
       <c r="D58" s="1" t="s">
         <v>31</v>
       </c>
@@ -5142,10 +5218,10 @@
       <c r="U58" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="V58" s="40" t="s">
+      <c r="V58" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W58" s="40" t="s">
+      <c r="W58" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X58" s="17">
@@ -5197,9 +5273,9 @@
         <v>9.4499998092651403</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="15" customHeight="1">
+    <row r="59" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="C59" s="44"/>
       <c r="E59" s="28"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -5239,8 +5315,8 @@
         <v>18.340000152587901</v>
       </c>
       <c r="U59" s="35"/>
-      <c r="V59" s="40"/>
-      <c r="W59" s="40"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="38"/>
       <c r="X59" s="17">
         <v>0.27638888888888902</v>
       </c>
@@ -5286,21 +5362,23 @@
         <v>18.340000152587901</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" ht="15.75" thickBot="1">
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="C60" s="44"/>
       <c r="E60" s="28"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:39" ht="15" customHeight="1">
+    <row r="61" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A61">
         <v>20</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="1"/>
+      <c r="C61" s="43">
+        <v>26000</v>
+      </c>
       <c r="D61" s="1" t="s">
         <v>31</v>
       </c>
@@ -5355,10 +5433,10 @@
       <c r="U61" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="V61" s="40" t="s">
+      <c r="V61" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W61" s="40" t="s">
+      <c r="W61" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X61" s="9">
@@ -5410,9 +5488,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="15" customHeight="1">
+    <row r="62" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="C62" s="44"/>
       <c r="E62" s="28"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -5452,8 +5530,8 @@
         <v>18.319999694824201</v>
       </c>
       <c r="U62" s="35"/>
-      <c r="V62" s="40"/>
-      <c r="W62" s="40"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="38"/>
       <c r="X62" s="5">
         <v>18.459999084472699</v>
       </c>
@@ -5495,21 +5573,23 @@
         <v>18.420000076293899</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" ht="15.75" thickBot="1">
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="C63" s="44"/>
       <c r="E63" s="28"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:39" ht="15" customHeight="1">
+    <row r="64" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A64">
         <v>21</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="C64" s="43">
+        <v>26000</v>
+      </c>
       <c r="D64" s="1" t="s">
         <v>28</v>
       </c>
@@ -5564,10 +5644,10 @@
       <c r="U64" s="17">
         <v>0.41597222222222202</v>
       </c>
-      <c r="V64" s="40" t="s">
+      <c r="V64" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W64" s="40" t="s">
+      <c r="W64" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X64" s="5">
@@ -5619,9 +5699,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="15" customHeight="1">
+    <row r="65" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="C65" s="43"/>
       <c r="D65" s="1"/>
       <c r="E65" s="28"/>
       <c r="F65" s="1"/>
@@ -5664,8 +5744,8 @@
       <c r="U65" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V65" s="40"/>
-      <c r="W65" s="40"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
       <c r="X65" s="5">
         <v>18.360000610351602</v>
       </c>
@@ -5703,22 +5783,24 @@
       <c r="AL65" s="35"/>
       <c r="AM65" s="35"/>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" ht="15.75" thickBot="1">
       <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="C66" s="43"/>
       <c r="D66" s="1"/>
       <c r="E66" s="28"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:39" ht="15" customHeight="1">
+    <row r="67" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A67">
         <v>22</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="1"/>
+      <c r="C67" s="43">
+        <v>26000</v>
+      </c>
       <c r="D67" s="1" t="s">
         <v>31</v>
       </c>
@@ -5773,10 +5855,10 @@
       <c r="U67" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="V67" s="40" t="s">
+      <c r="V67" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W67" s="40" t="s">
+      <c r="W67" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X67" s="35" t="s">
@@ -5828,9 +5910,9 @@
         <v>10.039999961853001</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15" customHeight="1">
+    <row r="68" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="C68" s="43"/>
       <c r="D68" s="1"/>
       <c r="E68" s="28"/>
       <c r="F68" s="1"/>
@@ -5863,8 +5945,8 @@
         <v>18.319999694824201</v>
       </c>
       <c r="U68" s="35"/>
-      <c r="V68" s="40"/>
-      <c r="W68" s="40"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="38"/>
       <c r="X68" s="35"/>
       <c r="Y68" s="35"/>
       <c r="Z68" s="34"/>
@@ -5904,22 +5986,24 @@
         <v>18.340000152587901</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" ht="15.75" thickBot="1">
       <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="C69" s="43"/>
       <c r="D69" s="1"/>
       <c r="E69" s="28"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:39" ht="15" customHeight="1">
+    <row r="70" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A70">
         <v>23</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="1"/>
+      <c r="C70" s="43">
+        <v>15000</v>
+      </c>
       <c r="D70" s="1" t="s">
         <v>52</v>
       </c>
@@ -5974,10 +6058,10 @@
       <c r="U70" s="5">
         <v>9.1899995803833008</v>
       </c>
-      <c r="V70" s="40" t="s">
+      <c r="V70" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W70" s="40" t="s">
+      <c r="W70" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X70" s="5">
@@ -6029,9 +6113,9 @@
         <v>9.4499998092651403</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="15" customHeight="1">
+    <row r="71" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="C71" s="43"/>
       <c r="D71" s="1"/>
       <c r="E71" s="28"/>
       <c r="F71" s="1"/>
@@ -6072,8 +6156,8 @@
       <c r="U71" s="26">
         <v>16.309999465942401</v>
       </c>
-      <c r="V71" s="40"/>
-      <c r="W71" s="40"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="38"/>
       <c r="X71" s="5">
         <v>19.370000839233398</v>
       </c>
@@ -6119,22 +6203,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" ht="15.75" thickBot="1">
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="C72" s="43"/>
       <c r="D72" s="1"/>
       <c r="E72" s="28"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:39" ht="15" customHeight="1">
+    <row r="73" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A73">
         <v>24</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="1"/>
+      <c r="C73" s="43">
+        <v>20000</v>
+      </c>
       <c r="D73" s="1" t="s">
         <v>31</v>
       </c>
@@ -6189,10 +6275,10 @@
       <c r="U73" s="23">
         <v>0.41805555555555601</v>
       </c>
-      <c r="V73" s="40" t="s">
+      <c r="V73" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W73" s="40" t="s">
+      <c r="W73" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X73" s="17">
@@ -6244,9 +6330,9 @@
         <v>10.050000190734901</v>
       </c>
     </row>
-    <row r="74" spans="1:39" ht="15" customHeight="1">
+    <row r="74" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="C74" s="43"/>
       <c r="D74" s="1"/>
       <c r="E74" s="28"/>
       <c r="F74" s="1"/>
@@ -6289,8 +6375,8 @@
       <c r="U74" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V74" s="40"/>
-      <c r="W74" s="40"/>
+      <c r="V74" s="38"/>
+      <c r="W74" s="38"/>
       <c r="X74" s="17">
         <v>0.27152777777777798</v>
       </c>
@@ -6334,22 +6420,24 @@
         <v>18.329999923706101</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" ht="15.75" thickBot="1">
       <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="C75" s="43"/>
       <c r="D75" s="1"/>
       <c r="E75" s="28"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:39" ht="15" customHeight="1">
+    <row r="76" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A76">
         <v>25</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="C76" s="43">
+        <v>35000</v>
+      </c>
       <c r="D76" s="30" t="s">
         <v>23</v>
       </c>
@@ -6404,10 +6492,10 @@
       <c r="U76" s="5">
         <v>9.5299997329711896</v>
       </c>
-      <c r="V76" s="40" t="s">
+      <c r="V76" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W76" s="40" t="s">
+      <c r="W76" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X76" s="17">
@@ -6459,9 +6547,9 @@
         <v>9.5699996948242205</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15" customHeight="1">
+    <row r="77" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="C77" s="44"/>
       <c r="E77" s="28"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -6503,8 +6591,8 @@
       <c r="U77" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V77" s="40"/>
-      <c r="W77" s="40"/>
+      <c r="V77" s="38"/>
+      <c r="W77" s="38"/>
       <c r="X77" s="17">
         <v>0.27361111111111103</v>
       </c>
@@ -6542,22 +6630,24 @@
         <v>18.329999923706101</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" ht="15.75" thickBot="1">
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="C78" s="43"/>
       <c r="D78" s="1"/>
       <c r="E78" s="28"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:39" ht="15" customHeight="1">
+    <row r="79" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A79">
         <v>26</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C79" s="1"/>
+      <c r="C79" s="43">
+        <v>25000</v>
+      </c>
       <c r="D79" s="1" t="s">
         <v>31</v>
       </c>
@@ -6612,10 +6702,10 @@
       <c r="U79" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="V79" s="40" t="s">
+      <c r="V79" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W79" s="40" t="s">
+      <c r="W79" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X79" s="35" t="s">
@@ -6667,9 +6757,9 @@
         <v>9.4300003051757795</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15" customHeight="1">
+    <row r="80" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="C80" s="43"/>
       <c r="D80" s="1"/>
       <c r="E80" s="28"/>
       <c r="F80" s="1"/>
@@ -6706,8 +6796,8 @@
       <c r="S80" s="35"/>
       <c r="T80" s="35"/>
       <c r="U80" s="35"/>
-      <c r="V80" s="40"/>
-      <c r="W80" s="40"/>
+      <c r="V80" s="38"/>
+      <c r="W80" s="38"/>
       <c r="X80" s="35"/>
       <c r="Y80" s="5">
         <v>18.309999465942401</v>
@@ -6751,22 +6841,24 @@
         <v>18.329999923706101</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:39" ht="15.75" thickBot="1">
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="C81" s="43"/>
       <c r="D81" s="1"/>
       <c r="E81" s="28"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:39" ht="15" customHeight="1">
+    <row r="82" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A82">
         <v>27</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C82" s="1"/>
+      <c r="C82" s="43">
+        <v>25000</v>
+      </c>
       <c r="D82" s="1" t="s">
         <v>31</v>
       </c>
@@ -6821,10 +6913,10 @@
       <c r="U82" s="5">
         <v>9.4700002670288104</v>
       </c>
-      <c r="V82" s="40" t="s">
+      <c r="V82" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W82" s="40" t="s">
+      <c r="W82" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X82" s="5">
@@ -6876,9 +6968,9 @@
         <v>9.4499998092651403</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="15" customHeight="1">
+    <row r="83" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="C83" s="43"/>
       <c r="D83" s="1"/>
       <c r="E83" s="24"/>
       <c r="F83" s="1"/>
@@ -6921,8 +7013,8 @@
       <c r="U83" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V83" s="40"/>
-      <c r="W83" s="40"/>
+      <c r="V83" s="38"/>
+      <c r="W83" s="38"/>
       <c r="X83" s="5">
         <v>18.309999465942401</v>
       </c>
@@ -6968,22 +7060,24 @@
         <v>18.329999923706101</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:39" ht="15.75" thickBot="1">
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="C84" s="43"/>
       <c r="D84" s="1"/>
       <c r="E84" s="24"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:39" ht="15" customHeight="1">
+    <row r="85" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A85">
         <v>28</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="1"/>
+      <c r="C85" s="43">
+        <v>24000</v>
+      </c>
       <c r="D85" s="1" t="s">
         <v>31</v>
       </c>
@@ -7038,10 +7132,10 @@
       <c r="U85" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="V85" s="40" t="s">
+      <c r="V85" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W85" s="40" t="s">
+      <c r="W85" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X85" s="9">
@@ -7093,9 +7187,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="15" customHeight="1">
+    <row r="86" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="C86" s="43"/>
       <c r="D86" s="1"/>
       <c r="E86" s="24"/>
       <c r="F86" s="1"/>
@@ -7134,8 +7228,8 @@
         <v>18.319999694824201</v>
       </c>
       <c r="U86" s="35"/>
-      <c r="V86" s="40"/>
-      <c r="W86" s="40"/>
+      <c r="V86" s="38"/>
+      <c r="W86" s="38"/>
       <c r="X86" s="5">
         <v>18.459999084472699</v>
       </c>
@@ -7181,22 +7275,24 @@
         <v>18.340000152587901</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:39" ht="15.75" thickBot="1">
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="C87" s="43"/>
       <c r="D87" s="1"/>
       <c r="E87" s="24"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:39" ht="15" customHeight="1">
+    <row r="88" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A88">
         <v>29</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C88" s="1"/>
+      <c r="C88" s="43">
+        <v>22000</v>
+      </c>
       <c r="D88" s="1" t="s">
         <v>31</v>
       </c>
@@ -7251,10 +7347,10 @@
       <c r="U88" s="5">
         <v>9.1899995803833008</v>
       </c>
-      <c r="V88" s="40" t="s">
+      <c r="V88" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W88" s="40" t="s">
+      <c r="W88" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X88" s="5">
@@ -7306,9 +7402,9 @@
         <v>9.4399995803833008</v>
       </c>
     </row>
-    <row r="89" spans="1:39" ht="15" customHeight="1">
+    <row r="89" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="C89" s="43"/>
       <c r="D89" s="1"/>
       <c r="E89" s="24"/>
       <c r="F89" s="1"/>
@@ -7351,8 +7447,8 @@
       <c r="U89" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V89" s="40"/>
-      <c r="W89" s="40"/>
+      <c r="V89" s="38"/>
+      <c r="W89" s="38"/>
       <c r="X89" s="5">
         <v>18.309999465942401</v>
       </c>
@@ -7394,22 +7490,24 @@
         <v>18.319999694824201</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:39" ht="15.75" thickBot="1">
       <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="C90" s="43"/>
       <c r="D90" s="1"/>
       <c r="E90" s="24"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:39" ht="15" customHeight="1">
+    <row r="91" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A91">
         <v>30</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C91" s="1"/>
+      <c r="C91" s="43">
+        <v>25000</v>
+      </c>
       <c r="D91" s="1" t="s">
         <v>31</v>
       </c>
@@ -7464,10 +7562,10 @@
       <c r="U91" s="5">
         <v>9.5500001907348597</v>
       </c>
-      <c r="V91" s="40" t="s">
+      <c r="V91" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W91" s="40" t="s">
+      <c r="W91" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X91" s="18">
@@ -7519,9 +7617,9 @@
         <v>10.2799997329712</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="15" customHeight="1">
+    <row r="92" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="C92" s="43"/>
       <c r="D92" s="1"/>
       <c r="E92" s="24"/>
       <c r="F92" s="1"/>
@@ -7562,8 +7660,8 @@
       <c r="U92" s="5">
         <v>15.189999580383301</v>
       </c>
-      <c r="V92" s="40"/>
-      <c r="W92" s="40"/>
+      <c r="V92" s="38"/>
+      <c r="W92" s="38"/>
       <c r="X92" s="18">
         <v>0.27569444444444402</v>
       </c>
@@ -7607,22 +7705,24 @@
         <v>18.340000152587901</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:39" ht="15.75" thickBot="1">
       <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="C93" s="43"/>
       <c r="D93" s="1"/>
       <c r="E93" s="24"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:39" ht="15" customHeight="1">
+    <row r="94" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A94">
         <v>31</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C94" s="1"/>
+      <c r="C94" s="43">
+        <v>23000</v>
+      </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
       </c>
@@ -7677,10 +7777,10 @@
       <c r="U94" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="V94" s="40" t="s">
+      <c r="V94" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W94" s="40" t="s">
+      <c r="W94" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X94" s="9">
@@ -7732,9 +7832,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:39" ht="15" customHeight="1">
+    <row r="95" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="C95" s="43"/>
       <c r="D95" s="1"/>
       <c r="E95" s="24"/>
       <c r="F95" s="1"/>
@@ -7773,8 +7873,8 @@
         <v>18.319999694824201</v>
       </c>
       <c r="U95" s="35"/>
-      <c r="V95" s="40"/>
-      <c r="W95" s="40"/>
+      <c r="V95" s="38"/>
+      <c r="W95" s="38"/>
       <c r="X95" s="5">
         <v>18.469999313354499</v>
       </c>
@@ -7820,22 +7920,24 @@
         <v>18.350000381469702</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:39" ht="15.75" thickBot="1">
       <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="C96" s="43"/>
       <c r="D96" s="1"/>
       <c r="E96" s="24"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:39" ht="15" customHeight="1">
+    <row r="97" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A97">
         <v>32</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C97" s="1"/>
+      <c r="C97" s="43">
+        <v>38000</v>
+      </c>
       <c r="D97" s="1" t="s">
         <v>31</v>
       </c>
@@ -7890,10 +7992,10 @@
       <c r="U97" s="17">
         <v>0.40347222222222201</v>
       </c>
-      <c r="V97" s="40" t="s">
+      <c r="V97" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W97" s="40" t="s">
+      <c r="W97" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X97" s="5">
@@ -7945,9 +8047,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:39" ht="15" customHeight="1">
+    <row r="98" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="C98" s="43"/>
       <c r="D98" s="1"/>
       <c r="E98" s="24"/>
       <c r="F98" s="1"/>
@@ -7990,8 +8092,8 @@
       <c r="U98" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V98" s="40"/>
-      <c r="W98" s="40"/>
+      <c r="V98" s="38"/>
+      <c r="W98" s="38"/>
       <c r="X98" s="5">
         <v>18.399999618530298</v>
       </c>
@@ -8027,22 +8129,24 @@
       <c r="AL98" s="35"/>
       <c r="AM98" s="35"/>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:39" ht="15.75" thickBot="1">
       <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="C99" s="43"/>
       <c r="D99" s="1"/>
       <c r="E99" s="28"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:39" ht="15" customHeight="1">
+    <row r="100" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A100">
         <v>33</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C100" s="1"/>
+      <c r="C100" s="43">
+        <v>32000</v>
+      </c>
       <c r="D100" s="1" t="s">
         <v>31</v>
       </c>
@@ -8097,10 +8201,10 @@
       <c r="U100" s="5">
         <v>9.4600000381469709</v>
       </c>
-      <c r="V100" s="40" t="s">
+      <c r="V100" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W100" s="40" t="s">
+      <c r="W100" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X100" s="5">
@@ -8152,9 +8256,9 @@
         <v>9.5699996948242205</v>
       </c>
     </row>
-    <row r="101" spans="1:39" ht="15" customHeight="1">
+    <row r="101" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+      <c r="C101" s="44"/>
       <c r="E101" s="28"/>
       <c r="H101" t="s">
         <v>19</v>
@@ -8194,8 +8298,8 @@
       <c r="U101" s="5">
         <v>15.180000305175801</v>
       </c>
-      <c r="V101" s="40"/>
-      <c r="W101" s="40"/>
+      <c r="V101" s="38"/>
+      <c r="W101" s="38"/>
       <c r="X101" s="5">
         <v>18.319999694824201</v>
       </c>
@@ -8241,20 +8345,22 @@
         <v>18.329999923706101</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:39" ht="15.75" thickBot="1">
       <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
+      <c r="C102" s="44"/>
       <c r="D102" s="1"/>
       <c r="E102" s="28"/>
     </row>
-    <row r="103" spans="1:39" ht="15" customHeight="1">
+    <row r="103" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A103">
         <v>34</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C103" s="1"/>
+      <c r="C103" s="43">
+        <v>45000</v>
+      </c>
       <c r="D103" s="1" t="s">
         <v>20</v>
       </c>
@@ -8305,10 +8411,10 @@
       <c r="U103" s="5">
         <v>9.4399995803833008</v>
       </c>
-      <c r="V103" s="40" t="s">
+      <c r="V103" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W103" s="40" t="s">
+      <c r="W103" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X103" s="5">
@@ -8360,9 +8466,9 @@
         <v>9.5500001907348597</v>
       </c>
     </row>
-    <row r="104" spans="1:39" ht="15" customHeight="1">
+    <row r="104" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="C104" s="43"/>
       <c r="D104" s="1"/>
       <c r="E104" s="28"/>
       <c r="H104" t="s">
@@ -8397,8 +8503,8 @@
       <c r="U104" s="17">
         <v>0.27083333333333298</v>
       </c>
-      <c r="V104" s="40"/>
-      <c r="W104" s="40"/>
+      <c r="V104" s="38"/>
+      <c r="W104" s="38"/>
       <c r="X104" s="5">
         <v>0</v>
       </c>
@@ -8442,20 +8548,22 @@
         <v>18.319999694824201</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:39" ht="15.75" thickBot="1">
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="C105" s="44"/>
       <c r="D105" s="1"/>
       <c r="E105" s="28"/>
     </row>
-    <row r="106" spans="1:39" ht="15" customHeight="1">
+    <row r="106" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A106">
         <v>35</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C106" s="1"/>
+      <c r="C106" s="43">
+        <v>60000</v>
+      </c>
       <c r="D106" s="1" t="s">
         <v>74</v>
       </c>
@@ -8502,10 +8610,10 @@
       <c r="U106" s="5">
         <v>9.4799995422363299</v>
       </c>
-      <c r="V106" s="40" t="s">
+      <c r="V106" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W106" s="40" t="s">
+      <c r="W106" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X106" s="17">
@@ -8557,9 +8665,9 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="107" spans="1:39" ht="15" customHeight="1">
+    <row r="107" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
+      <c r="C107" s="43"/>
       <c r="D107" s="1"/>
       <c r="E107" s="28"/>
       <c r="H107" t="s">
@@ -8594,8 +8702,8 @@
       <c r="U107" s="5">
         <v>15.210000038146999</v>
       </c>
-      <c r="V107" s="40"/>
-      <c r="W107" s="40"/>
+      <c r="V107" s="38"/>
+      <c r="W107" s="38"/>
       <c r="X107" s="5">
         <v>18.360000610351602</v>
       </c>
@@ -8641,19 +8749,21 @@
         <v>18.350000381469702</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:39" ht="15.75" thickBot="1">
       <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+      <c r="C108" s="44"/>
       <c r="E108" s="28"/>
     </row>
-    <row r="109" spans="1:39" ht="15" customHeight="1">
+    <row r="109" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A109">
         <v>36</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C109" s="1"/>
+      <c r="C109" s="43">
+        <v>30000</v>
+      </c>
       <c r="D109" s="1" t="s">
         <v>31</v>
       </c>
@@ -8690,10 +8800,10 @@
       <c r="U109" s="9">
         <v>10.1000003814697</v>
       </c>
-      <c r="V109" s="40" t="s">
+      <c r="V109" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="W109" s="40" t="s">
+      <c r="W109" s="38" t="s">
         <v>65</v>
       </c>
       <c r="X109" s="35" t="s">
@@ -8725,9 +8835,9 @@
       <c r="AL109" s="15"/>
       <c r="AM109" s="15"/>
     </row>
-    <row r="110" spans="1:39" ht="15" customHeight="1">
+    <row r="110" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
+      <c r="C110" s="44"/>
       <c r="E110" s="28"/>
       <c r="H110" t="s">
         <v>19</v>
@@ -8751,8 +8861,8 @@
       <c r="U110" s="9">
         <v>13.4899997711182</v>
       </c>
-      <c r="V110" s="40"/>
-      <c r="W110" s="40"/>
+      <c r="V110" s="38"/>
+      <c r="W110" s="38"/>
       <c r="X110" s="35"/>
       <c r="Y110" s="35"/>
       <c r="Z110" s="34"/>
@@ -8776,21 +8886,23 @@
       <c r="AL110" s="15"/>
       <c r="AM110" s="15"/>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:39" ht="15.75" thickBot="1">
       <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
+      <c r="C111" s="44"/>
       <c r="E111" s="27">
         <v>50100780668940</v>
       </c>
     </row>
-    <row r="112" spans="1:39" ht="15" customHeight="1">
+    <row r="112" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A112">
         <v>37</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C112" s="1"/>
+      <c r="C112" s="43">
+        <v>25000</v>
+      </c>
       <c r="D112" s="1" t="s">
         <v>31</v>
       </c>
@@ -8868,9 +8980,9 @@
         <v>9.4399995803833008</v>
       </c>
     </row>
-    <row r="113" spans="1:39" ht="15" customHeight="1">
+    <row r="113" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
+      <c r="C113" s="44"/>
       <c r="E113" s="28"/>
       <c r="H113" t="s">
         <v>19</v>
@@ -8935,19 +9047,21 @@
         <v>18.319999694824201</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:39" ht="15.75" thickBot="1">
       <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
+      <c r="C114" s="44"/>
       <c r="E114" s="28"/>
     </row>
-    <row r="115" spans="1:39" ht="15" customHeight="1">
+    <row r="115" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A115">
         <v>38</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C115" s="1"/>
+      <c r="C115" s="43">
+        <v>25000</v>
+      </c>
       <c r="D115" s="1" t="s">
         <v>31</v>
       </c>
@@ -9099,20 +9213,20 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-      <c r="I118" s="38"/>
-      <c r="J118" s="38"/>
-      <c r="K118" s="38"/>
-      <c r="L118" s="38"/>
-      <c r="M118" s="38"/>
-      <c r="N118" s="38"/>
-      <c r="O118" s="38"/>
-      <c r="P118" s="38"/>
-      <c r="Q118" s="38"/>
-      <c r="R118" s="38"/>
-      <c r="S118" s="38"/>
-      <c r="T118" s="38"/>
-      <c r="U118" s="39"/>
-      <c r="V118" s="39"/>
+      <c r="I118" s="40"/>
+      <c r="J118" s="40"/>
+      <c r="K118" s="40"/>
+      <c r="L118" s="40"/>
+      <c r="M118" s="40"/>
+      <c r="N118" s="40"/>
+      <c r="O118" s="40"/>
+      <c r="P118" s="40"/>
+      <c r="Q118" s="40"/>
+      <c r="R118" s="40"/>
+      <c r="S118" s="40"/>
+      <c r="T118" s="40"/>
+      <c r="U118" s="41"/>
+      <c r="V118" s="41"/>
       <c r="W118" s="8"/>
       <c r="X118" s="35"/>
       <c r="Y118" s="8"/>
@@ -9136,20 +9250,20 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
-      <c r="I119" s="38"/>
-      <c r="J119" s="38"/>
-      <c r="K119" s="38"/>
-      <c r="L119" s="38"/>
-      <c r="M119" s="38"/>
-      <c r="N119" s="38"/>
-      <c r="O119" s="38"/>
-      <c r="P119" s="38"/>
-      <c r="Q119" s="38"/>
-      <c r="R119" s="38"/>
-      <c r="S119" s="38"/>
-      <c r="T119" s="38"/>
-      <c r="U119" s="39"/>
-      <c r="V119" s="39"/>
+      <c r="I119" s="40"/>
+      <c r="J119" s="40"/>
+      <c r="K119" s="40"/>
+      <c r="L119" s="40"/>
+      <c r="M119" s="40"/>
+      <c r="N119" s="40"/>
+      <c r="O119" s="40"/>
+      <c r="P119" s="40"/>
+      <c r="Q119" s="40"/>
+      <c r="R119" s="40"/>
+      <c r="S119" s="40"/>
+      <c r="T119" s="40"/>
+      <c r="U119" s="41"/>
+      <c r="V119" s="41"/>
       <c r="W119" s="8"/>
       <c r="X119" s="35"/>
       <c r="Y119" s="8"/>
